--- a/AfDD_2023_Annex_Table_Tab30.xlsx
+++ b/AfDD_2023_Annex_Table_Tab30.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\main.oecd.org\ASgenDEV\AFRICASTATS\Statistical Annex (Final written files are in S)\Output tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6AFB4DD6-C81B-46D3-9BA4-F61ACD9033FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{87573D73-CD0A-46B3-92A9-E6F85EC1CE5E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-10695" windowWidth="29040" windowHeight="15840" xr2:uid="{CD7B8DDC-74FF-4CE9-8540-1BA8F57CA032}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{AB1FC13F-0EDA-4817-B4A6-F9357FFD3724}"/>
   </bookViews>
   <sheets>
     <sheet name="Tab30" sheetId="1" r:id="rId1"/>
@@ -588,7 +588,7 @@
     <t>ROW = "Rest of world"; LAC = "Latin American and Caribbean countries".</t>
   </si>
   <si>
-    <t>Regional Economic Communities:CEN-SAD = "Community of Sahel-Saharan States";COMESA = "Common Market for Eastern and Southern Africa";EAC = "East African Community";ECCAS = "Economic Community of Central African States";ECOWAS = "Economic Community of West African States";IGAD = "Intergovernmental Authority on Development";SADC = "Southern African Development Community";UMA = "Arab Maghreb Union";PALOP = "Países Africanos de Língua Oficial Portuguesa";ASEAN = "Association of Southeast Asian Nations";MERCOSUR = "Mercado Común del Sur".EU27 = "European Union (27 members)".OECD = "Organisation for Economic Co-operation and Development".</t>
+    <t>Regional Economic Communities:CEN-SAD = "Community of Sahel-Saharan States";COMESA = "Common Market for Eastern and Southern Africa";EAC = "East African Community";ECCAS = "Economic Community of Central African States";ECOWAS = "Economic Community of West African States";IGAD = "Intergovernmental Authority on Development";SADC = "Southern African Development Community";UMA = "Arab Maghreb Union";PALOP = "Pa&gt;ses Africanos de L&gt;ngua Oficial Portuguesa";ASEAN = "Association of Southeast Asian Nations";MERCOSUR = "Mercado Com&gt;n del Sur".EU27 = "European Union (27 members)".OECD = "Organisation for Economic Co-operation and Development".</t>
   </si>
   <si>
     <t>Source: Author's calculations based on OECD Environment Statistics (database, accessed on 21 February 2023) and population data from United Nations Department of Economic and Social Affairs Population Division World Population Prospects: the 2022 Revision.</t>
@@ -1465,7 +1465,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E08CD4D-19C1-4CAF-99F3-E5F152D2372C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1F88466D-C50F-4C1E-8337-8D8C86DE7909}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -2450,10 +2450,10 @@
         <v>239.960588364899</v>
       </c>
       <c r="G13" s="31">
-        <v>3.8233090535860099</v>
+        <v>3.8232899426087101</v>
       </c>
       <c r="H13" s="32">
-        <v>6.0675730062582804</v>
+        <v>6.0675759319709703</v>
       </c>
       <c r="I13" s="29">
         <v>73079</v>
@@ -2468,10 +2468,10 @@
         <v>154.90191934504301</v>
       </c>
       <c r="M13" s="31">
-        <v>2.3144149580106199</v>
+        <v>2.3143969157089601</v>
       </c>
       <c r="N13" s="32">
-        <v>4.4166391383580104</v>
+        <v>4.4166704886044803</v>
       </c>
       <c r="O13" s="32">
         <v>6.5173000932827101</v>
@@ -3280,10 +3280,10 @@
         <v>55.941530659303197</v>
       </c>
       <c r="G23" s="31">
-        <v>3.1196165441509698</v>
+        <v>3.1035845591530702</v>
       </c>
       <c r="H23" s="32">
-        <v>6.8698350354042299</v>
+        <v>6.84518140226076</v>
       </c>
       <c r="I23" s="29">
         <v>108015</v>
@@ -3298,10 +3298,10 @@
         <v>102.614885484895</v>
       </c>
       <c r="M23" s="31">
-        <v>5.7148573643591201</v>
+        <v>5.7223818562038904</v>
       </c>
       <c r="N23" s="32">
-        <v>13.062917258043999</v>
+        <v>13.13257770968</v>
       </c>
       <c r="O23" s="32">
         <v>10.6195422659265</v>
@@ -4525,10 +4525,10 @@
         <v>33.978604430136599</v>
       </c>
       <c r="G38" s="31">
-        <v>1.3189238854349701</v>
+        <v>1.3236006663155799</v>
       </c>
       <c r="H38" s="32">
-        <v>3.3003501434702098</v>
+        <v>3.3057872835409698</v>
       </c>
       <c r="I38" s="29">
         <v>232273</v>
@@ -4543,10 +4543,10 @@
         <v>158.25531077769</v>
       </c>
       <c r="M38" s="31">
-        <v>6.1722319997295401</v>
+        <v>6.1651227782007902</v>
       </c>
       <c r="N38" s="32">
-        <v>17.112519729439398</v>
+        <v>17.0923600897172</v>
       </c>
       <c r="O38" s="32">
         <v>5.5863544031636296</v>
@@ -5106,10 +5106,10 @@
         <v>982.67086028343897</v>
       </c>
       <c r="G45" s="31">
-        <v>8.4075494617968207</v>
+        <v>8.4204550988883593</v>
       </c>
       <c r="H45" s="32">
-        <v>21.0295508961742</v>
+        <v>21.0528836209864</v>
       </c>
       <c r="I45" s="29">
         <v>3055</v>
@@ -5124,10 +5124,10 @@
         <v>11.135804655657401</v>
       </c>
       <c r="M45" s="31">
-        <v>0.11257945047084</v>
+        <v>0.11268827452914</v>
       </c>
       <c r="N45" s="32">
-        <v>0.27778831556076999</v>
+        <v>0.27802832054030002</v>
       </c>
       <c r="O45" s="32">
         <v>15.489039176129101</v>
@@ -6434,10 +6434,10 @@
         <v>159.3988831314</v>
       </c>
       <c r="G61" s="31">
-        <v>3.79534106225733</v>
+        <v>3.7948047935917502</v>
       </c>
       <c r="H61" s="32">
-        <v>7.66180598264613</v>
+        <v>7.66096101048152</v>
       </c>
       <c r="I61" s="29">
         <v>280512</v>
@@ -6452,10 +6452,10 @@
         <v>322.94268224011302</v>
       </c>
       <c r="M61" s="31">
-        <v>7.7865508438400699</v>
+        <v>7.7870874830496302</v>
       </c>
       <c r="N61" s="32">
-        <v>15.7644181908117</v>
+        <v>15.766067955974901</v>
       </c>
       <c r="O61" s="32">
         <v>7.79285873862852</v>
@@ -6517,10 +6517,10 @@
         <v>262.61550122536102</v>
       </c>
       <c r="G62" s="43">
-        <v>5.12423913386605</v>
+        <v>5.1252585815629201</v>
       </c>
       <c r="H62" s="44">
-        <v>11.6189599578724</v>
+        <v>11.617925021089</v>
       </c>
       <c r="I62" s="41">
         <v>696934</v>
@@ -6535,10 +6535,10 @@
         <v>178.01292164017599</v>
       </c>
       <c r="M62" s="43">
-        <v>3.5845190377135099</v>
+        <v>3.5879847362866202</v>
       </c>
       <c r="N62" s="44">
-        <v>7.9148413441868097</v>
+        <v>7.9251220421018296</v>
       </c>
       <c r="O62" s="44">
         <v>8.5209600582440892</v>
@@ -6600,10 +6600,10 @@
         <v>935.14943449997702</v>
       </c>
       <c r="G63" s="48">
-        <v>4.9545424087745804</v>
+        <v>4.9552065252522803</v>
       </c>
       <c r="H63" s="49">
-        <v>9.9793015530314193</v>
+        <v>9.9898682256697704</v>
       </c>
       <c r="I63" s="46">
         <v>1614783</v>
@@ -6618,10 +6618,10 @@
         <v>255.950200353588</v>
       </c>
       <c r="M63" s="48">
-        <v>1.35744761270797</v>
+        <v>1.35732190175552</v>
       </c>
       <c r="N63" s="49">
-        <v>2.68018351367872</v>
+        <v>2.6799058583351698</v>
       </c>
       <c r="O63" s="49">
         <v>55.267983698248301</v>
@@ -6683,10 +6683,10 @@
         <v>411.044203110556</v>
       </c>
       <c r="G64" s="43">
-        <v>2.8360883224860398</v>
+        <v>2.8365064013866799</v>
       </c>
       <c r="H64" s="44">
-        <v>7.5376328515915496</v>
+        <v>7.5380744412778702</v>
       </c>
       <c r="I64" s="41">
         <v>59309</v>
@@ -6701,10 +6701,10 @@
         <v>110.162902657863</v>
       </c>
       <c r="M64" s="43">
-        <v>0.76507236430248005</v>
+        <v>0.76499479143844995</v>
       </c>
       <c r="N64" s="44">
-        <v>2.0572112553255</v>
+        <v>2.0570041628457099</v>
       </c>
       <c r="O64" s="44">
         <v>12.4613189434214</v>
@@ -6766,10 +6766,10 @@
         <v>909.37588615385096</v>
       </c>
       <c r="G65" s="54">
-        <v>8.5662197848190509</v>
+        <v>8.5657940914746291</v>
       </c>
       <c r="H65" s="55">
-        <v>16.7440147808889</v>
+        <v>16.743336431588101</v>
       </c>
       <c r="I65" s="52">
         <v>1518184</v>
@@ -6784,10 +6784,10 @@
         <v>356.32571336973899</v>
       </c>
       <c r="M65" s="54">
-        <v>3.4090056441121201</v>
+        <v>3.40945624392285</v>
       </c>
       <c r="N65" s="55">
-        <v>6.72065397205332</v>
+        <v>6.7215684546421297</v>
       </c>
       <c r="O65" s="55">
         <v>72.301921855597996</v>
@@ -6849,10 +6849,10 @@
         <v>823.85477370668002</v>
       </c>
       <c r="G66" s="59">
-        <v>4.9630302883026003</v>
+        <v>4.9637099360933901</v>
       </c>
       <c r="H66" s="60">
-        <v>10.0613138782539</v>
+        <v>10.071278801375</v>
       </c>
       <c r="I66" s="57">
         <v>2311717</v>
@@ -6867,10 +6867,10 @@
         <v>243.052705419277</v>
       </c>
       <c r="M66" s="59">
-        <v>1.4688411233696801</v>
+        <v>1.4688656427812401</v>
       </c>
       <c r="N66" s="60">
-        <v>2.94201028147162</v>
+        <v>2.9421915908846699</v>
       </c>
       <c r="O66" s="60">
         <v>47.237306905507197</v>
@@ -6932,10 +6932,10 @@
         <v>307.12593240186402</v>
       </c>
       <c r="G67" s="64">
-        <v>6.32429811012992</v>
+        <v>6.3250476831508902</v>
       </c>
       <c r="H67" s="65">
-        <v>15.8097932648745</v>
+        <v>15.8096153138454</v>
       </c>
       <c r="I67" s="62">
         <v>285276</v>
@@ -6950,10 +6950,10 @@
         <v>98.074989499631798</v>
       </c>
       <c r="M67" s="64">
-        <v>2.2853681143972802</v>
+        <v>2.28516070623238</v>
       </c>
       <c r="N67" s="65">
-        <v>6.4069339501545199</v>
+        <v>6.4088794278249104</v>
       </c>
       <c r="O67" s="65">
         <v>8.8461323729727894</v>
@@ -7015,10 +7015,10 @@
         <v>413.62987665352199</v>
       </c>
       <c r="G68" s="54">
-        <v>6.61787463483717</v>
+        <v>6.62122909374893</v>
       </c>
       <c r="H68" s="55">
-        <v>15.338829391167801</v>
+        <v>15.348313728070099</v>
       </c>
       <c r="I68" s="52">
         <v>350267</v>
@@ -7033,10 +7033,10 @@
         <v>230.78856152885001</v>
       </c>
       <c r="M68" s="54">
-        <v>3.8109996534833899</v>
+        <v>3.8073213204125702</v>
       </c>
       <c r="N68" s="55">
-        <v>7.6764250025959004</v>
+        <v>7.6693119122204099</v>
       </c>
       <c r="O68" s="55">
         <v>9.97160661342126</v>
@@ -7098,10 +7098,10 @@
         <v>34.893218731310398</v>
       </c>
       <c r="G69" s="54">
-        <v>1.29715954219583</v>
+        <v>1.29717775044828</v>
       </c>
       <c r="H69" s="55">
-        <v>3.2269466103027402</v>
+        <v>3.2269218576216101</v>
       </c>
       <c r="I69" s="52">
         <v>109425</v>
@@ -7116,10 +7116,10 @@
         <v>176.15395701646099</v>
       </c>
       <c r="M69" s="54">
-        <v>6.4352351406907999</v>
+        <v>6.4354124340619601</v>
       </c>
       <c r="N69" s="55">
-        <v>15.9160079773799</v>
+        <v>15.9160719983542</v>
       </c>
       <c r="O69" s="55">
         <v>5.0759368354654599</v>
@@ -7181,10 +7181,10 @@
         <v>65.588275118032499</v>
       </c>
       <c r="G70" s="54">
-        <v>2.63464661669417</v>
+        <v>2.6283535672707901</v>
       </c>
       <c r="H70" s="55">
-        <v>6.1304940832617696</v>
+        <v>6.1207802090208601</v>
       </c>
       <c r="I70" s="52">
         <v>124209</v>
@@ -7199,10 +7199,10 @@
         <v>119.49728582703599</v>
       </c>
       <c r="M70" s="54">
-        <v>4.7855716914462603</v>
+        <v>4.7950983125524997</v>
       </c>
       <c r="N70" s="55">
-        <v>11.5072826682604</v>
+        <v>11.5554374270717</v>
       </c>
       <c r="O70" s="55">
         <v>9.6970578728711594</v>
@@ -7264,10 +7264,10 @@
         <v>159.3988831314</v>
       </c>
       <c r="G71" s="54">
-        <v>3.79534106225733</v>
+        <v>3.7948047935917502</v>
       </c>
       <c r="H71" s="55">
-        <v>7.6618059826461398</v>
+        <v>7.66096101048152</v>
       </c>
       <c r="I71" s="52">
         <v>280512</v>
@@ -7282,10 +7282,10 @@
         <v>322.94268224011302</v>
       </c>
       <c r="M71" s="54">
-        <v>7.7865508438400699</v>
+        <v>7.7870874830496302</v>
       </c>
       <c r="N71" s="55">
-        <v>15.7644181908117</v>
+        <v>15.766067955974901</v>
       </c>
       <c r="O71" s="55">
         <v>7.79285873862852</v>
@@ -7347,10 +7347,10 @@
         <v>28.9689793653381</v>
       </c>
       <c r="G72" s="54">
-        <v>1.1312610233612701</v>
+        <v>1.13126521276418</v>
       </c>
       <c r="H72" s="55">
-        <v>3.15243591243344</v>
+        <v>3.1524196889997498</v>
       </c>
       <c r="I72" s="52">
         <v>163615</v>
@@ -7365,10 +7365,10 @@
         <v>145.57196229839801</v>
       </c>
       <c r="M72" s="54">
-        <v>5.71017611325823</v>
+        <v>5.7101988389666403</v>
       </c>
       <c r="N72" s="55">
-        <v>17.097199314733</v>
+        <v>17.0971781791146</v>
       </c>
       <c r="O72" s="55">
         <v>6.1114950330639903</v>
@@ -7430,10 +7430,10 @@
         <v>135.19491260158301</v>
       </c>
       <c r="G73" s="54">
-        <v>3.37425769494897</v>
+        <v>3.3716196462049099</v>
       </c>
       <c r="H73" s="55">
-        <v>5.5766064097649304</v>
+        <v>5.57524911130447</v>
       </c>
       <c r="I73" s="52">
         <v>192307</v>
@@ -7448,10 +7448,10 @@
         <v>141.34775309031301</v>
       </c>
       <c r="M73" s="54">
-        <v>3.32213463905742</v>
+        <v>3.32629819424784</v>
       </c>
       <c r="N73" s="55">
-        <v>7.2522638363487797</v>
+        <v>7.2730716827344404</v>
       </c>
       <c r="O73" s="55">
         <v>6.9855418194860102</v>
@@ -7513,10 +7513,10 @@
         <v>655.73767223287996</v>
       </c>
       <c r="G74" s="54">
-        <v>6.4735671386677804</v>
+        <v>6.4807275119808301</v>
       </c>
       <c r="H74" s="55">
-        <v>16.553613731222399</v>
+        <v>16.556241861913101</v>
       </c>
       <c r="I74" s="52">
         <v>2982</v>
@@ -7531,10 +7531,10 @@
         <v>21.5781939058832</v>
       </c>
       <c r="M74" s="54">
-        <v>0.22968200204912001</v>
+        <v>0.23114779215431</v>
       </c>
       <c r="N74" s="55">
-        <v>0.56693980510177999</v>
+        <v>0.57049791566056995</v>
       </c>
       <c r="O74" s="55">
         <v>15.743241880128901</v>
@@ -7679,10 +7679,10 @@
         <v>497.398462334432</v>
       </c>
       <c r="G76" s="64">
-        <v>4.0765493732276203</v>
+        <v>4.0765025159190396</v>
       </c>
       <c r="H76" s="65">
-        <v>9.7398317222262403</v>
+        <v>9.7396446170705904</v>
       </c>
       <c r="I76" s="62">
         <v>229941</v>
@@ -7697,10 +7697,10 @@
         <v>351.66947067633703</v>
       </c>
       <c r="M76" s="64">
-        <v>2.8934482235198802</v>
+        <v>2.8938185005195698</v>
       </c>
       <c r="N76" s="65">
-        <v>6.1253436948986399</v>
+        <v>6.1258311626315898</v>
       </c>
       <c r="O76" s="65">
         <v>13.6609909640891</v>
@@ -7762,10 +7762,10 @@
         <v>381.49775458428599</v>
       </c>
       <c r="G77" s="54">
-        <v>2.7252646719556299</v>
+        <v>2.7252611013311201</v>
       </c>
       <c r="H77" s="55">
-        <v>7.3223726683941104</v>
+        <v>7.3223615507939099</v>
       </c>
       <c r="I77" s="52">
         <v>24135</v>
@@ -7780,10 +7780,10 @@
         <v>83.965943213259195</v>
       </c>
       <c r="M77" s="54">
-        <v>0.58643445110517001</v>
+        <v>0.58643690197107001</v>
       </c>
       <c r="N77" s="55">
-        <v>1.63046428769772</v>
+        <v>1.6304713355768901</v>
       </c>
       <c r="O77" s="55">
         <v>12.0341926668172</v>
@@ -7845,10 +7845,10 @@
         <v>1461.6650047216101</v>
       </c>
       <c r="G78" s="54">
-        <v>3.4943100199821999</v>
+        <v>3.4952498475670399</v>
       </c>
       <c r="H78" s="55">
-        <v>5.3009708786492196</v>
+        <v>5.3015030209817704</v>
       </c>
       <c r="I78" s="52">
         <v>9423</v>
@@ -7863,10 +7863,10 @@
         <v>66.380226998324602</v>
       </c>
       <c r="M78" s="54">
-        <v>0.15664384867326001</v>
+        <v>0.15683436540539</v>
       </c>
       <c r="N78" s="55">
-        <v>0.17419003740295999</v>
+        <v>0.17435280388095001</v>
       </c>
       <c r="O78" s="55">
         <v>31.730660108173002</v>
@@ -7928,10 +7928,10 @@
         <v>1047.4878510532101</v>
       </c>
       <c r="G79" s="59">
-        <v>2.4396248732705401</v>
+        <v>2.4396252356936601</v>
       </c>
       <c r="H79" s="60">
-        <v>4.9926990893639998</v>
+        <v>4.9926397402272</v>
       </c>
       <c r="I79" s="57">
         <v>18287</v>
@@ -7946,10 +7946,10 @@
         <v>32.185890099389901</v>
       </c>
       <c r="M79" s="59">
-        <v>7.5971720089890005E-2</v>
+        <v>7.6000109315329994E-2</v>
       </c>
       <c r="N79" s="60">
-        <v>0.16660703034070001</v>
+        <v>0.16665436551012999</v>
       </c>
       <c r="O79" s="60">
         <v>28.202971854713301</v>
@@ -8011,10 +8011,10 @@
         <v>266.63264616240502</v>
       </c>
       <c r="G80" s="64">
-        <v>4.2825110172179501</v>
+        <v>4.2776910123578098</v>
       </c>
       <c r="H80" s="65">
-        <v>10.5288097044059</v>
+        <v>10.506479961256</v>
       </c>
       <c r="I80" s="62">
         <v>159223</v>
@@ -8029,10 +8029,10 @@
         <v>285.629016110625</v>
       </c>
       <c r="M80" s="64">
-        <v>4.5248844424600696</v>
+        <v>4.5424646131336104</v>
       </c>
       <c r="N80" s="65">
-        <v>9.0624966491301304</v>
+        <v>9.0976797064157697</v>
       </c>
       <c r="O80" s="65">
         <v>8.5799397792860894</v>
@@ -8094,10 +8094,10 @@
         <v>1009.01280874751</v>
       </c>
       <c r="G81" s="54">
-        <v>5.0628515391195901</v>
+        <v>5.0614930615822198</v>
       </c>
       <c r="H81" s="55">
-        <v>14.0573342793744</v>
+        <v>14.139338064116799</v>
       </c>
       <c r="I81" s="52">
         <v>31441</v>
@@ -8112,10 +8112,10 @@
         <v>51.980400913448797</v>
       </c>
       <c r="M81" s="54">
-        <v>0.24791182233598999</v>
+        <v>0.24656768288457001</v>
       </c>
       <c r="N81" s="55">
-        <v>0.43823851361115002</v>
+        <v>0.43615820565102997</v>
       </c>
       <c r="O81" s="55">
         <v>11.043695530192499</v>
@@ -8177,10 +8177,10 @@
         <v>261.268907798052</v>
       </c>
       <c r="G82" s="54">
-        <v>5.5127262697903401</v>
+        <v>5.5140858198604299</v>
       </c>
       <c r="H82" s="55">
-        <v>12.1221026488672</v>
+        <v>12.127807806646199</v>
       </c>
       <c r="I82" s="52">
         <v>537711</v>
@@ -8195,10 +8195,10 @@
         <v>141.938762565106</v>
       </c>
       <c r="M82" s="54">
-        <v>3.1505073234951002</v>
+        <v>3.15011076846478</v>
       </c>
       <c r="N82" s="55">
-        <v>7.3851580490377904</v>
+        <v>7.3872034443110399</v>
       </c>
       <c r="O82" s="55">
         <v>8.5025522827254001</v>
@@ -8260,10 +8260,10 @@
         <v>928.89080609407995</v>
       </c>
       <c r="G83" s="59">
-        <v>4.9445632163450703</v>
+        <v>4.9453460168992898</v>
       </c>
       <c r="H83" s="60">
-        <v>9.6035670865060592</v>
+        <v>9.6049099476477604</v>
       </c>
       <c r="I83" s="57">
         <v>1583342</v>
@@ -8278,10 +8278,10 @@
         <v>273.233071515728</v>
       </c>
       <c r="M83" s="59">
-        <v>1.45967603171825</v>
+        <v>1.46036977245948</v>
       </c>
       <c r="N83" s="60">
-        <v>2.8867478217918099</v>
+        <v>2.8880647958192101</v>
       </c>
       <c r="O83" s="60">
         <v>58.978843515289398</v>
@@ -8343,10 +8343,10 @@
         <v>19.194354123591399</v>
       </c>
       <c r="G84" s="64">
-        <v>1.16932447567044</v>
+        <v>1.16981847410522</v>
       </c>
       <c r="H84" s="65">
-        <v>3.1890953367969002</v>
+        <v>3.1920298551358202</v>
       </c>
       <c r="I84" s="62">
         <v>407558</v>
@@ -8361,10 +8361,10 @@
         <v>125.655010559193</v>
       </c>
       <c r="M84" s="64">
-        <v>7.6280162132637699</v>
+        <v>7.6258954187636903</v>
       </c>
       <c r="N84" s="65">
-        <v>20.590101526237699</v>
+        <v>20.592975240407402</v>
       </c>
       <c r="O84" s="65">
         <v>7.2905196008218001</v>
@@ -8426,10 +8426,10 @@
         <v>58.046573859246699</v>
       </c>
       <c r="G85" s="54">
-        <v>2.9977442297079002</v>
+        <v>2.9977510548676598</v>
       </c>
       <c r="H85" s="55">
-        <v>9.0539581691341606</v>
+        <v>9.0539782700017106</v>
       </c>
       <c r="I85" s="52">
         <v>69410</v>
@@ -8444,10 +8444,10 @@
         <v>111.902081701722</v>
       </c>
       <c r="M85" s="54">
-        <v>5.6362482450854996</v>
+        <v>5.6362307228256698</v>
       </c>
       <c r="N85" s="55">
-        <v>17.090027035938199</v>
+        <v>17.0899731485061</v>
       </c>
       <c r="O85" s="55">
         <v>42.285361048519299</v>
@@ -8509,10 +8509,10 @@
         <v>390.53733981303202</v>
       </c>
       <c r="G86" s="54">
-        <v>5.9642615100937704</v>
+        <v>5.9686185909816301</v>
       </c>
       <c r="H86" s="55">
-        <v>13.9414049795121</v>
+        <v>13.946863752426299</v>
       </c>
       <c r="I86" s="52">
         <v>283200</v>
@@ -8527,10 +8527,10 @@
         <v>220.15912066125799</v>
       </c>
       <c r="M86" s="54">
-        <v>3.5080561322788499</v>
+        <v>3.5114542190289901</v>
       </c>
       <c r="N86" s="55">
-        <v>7.1862907360644304</v>
+        <v>7.1934129627193899</v>
       </c>
       <c r="O86" s="55">
         <v>9.2897859841925001</v>
@@ -8592,10 +8592,10 @@
         <v>488.52676606593201</v>
       </c>
       <c r="G87" s="54">
-        <v>6.7062205201128604</v>
+        <v>6.7069917560805097</v>
       </c>
       <c r="H87" s="55">
-        <v>13.675013874909601</v>
+        <v>13.6762043480241</v>
       </c>
       <c r="I87" s="52">
         <v>1114555</v>
@@ -8610,10 +8610,10 @@
         <v>329.729276079366</v>
       </c>
       <c r="M87" s="54">
-        <v>4.5570405511495897</v>
+        <v>4.55701134056046</v>
       </c>
       <c r="N87" s="55">
-        <v>9.3297815596048199</v>
+        <v>9.3294750770453501</v>
       </c>
       <c r="O87" s="55">
         <v>78.598230544894605</v>
@@ -8675,10 +8675,10 @@
         <v>608.62040274833896</v>
       </c>
       <c r="G88" s="54">
-        <v>4.7095977645390397</v>
+        <v>4.7100821236573998</v>
       </c>
       <c r="H88" s="55">
-        <v>8.5814656885541201</v>
+        <v>8.5808026709273602</v>
       </c>
       <c r="I88" s="52">
         <v>6176</v>
@@ -8693,10 +8693,10 @@
         <v>114.872224520693</v>
       </c>
       <c r="M88" s="54">
-        <v>0.84878033347365001</v>
+        <v>0.84810376499089002</v>
       </c>
       <c r="N88" s="55">
-        <v>1.31284643640478</v>
+        <v>1.31179073242942</v>
       </c>
       <c r="O88" s="55">
         <v>10.281869830323</v>
@@ -8758,10 +8758,10 @@
         <v>1344.2695061919701</v>
       </c>
       <c r="G89" s="54">
-        <v>7.7602030163867601</v>
+        <v>7.7603079984928502</v>
       </c>
       <c r="H89" s="55">
-        <v>14.594257998999</v>
+        <v>14.593895113401601</v>
       </c>
       <c r="I89" s="52">
         <v>424815</v>
@@ -8776,10 +8776,10 @@
         <v>298.96534520655899</v>
       </c>
       <c r="M89" s="54">
-        <v>1.71430638466323</v>
+        <v>1.7143155773396299</v>
       </c>
       <c r="N89" s="55">
-        <v>3.2372155982798199</v>
+        <v>3.23709719108105</v>
       </c>
       <c r="O89" s="55">
         <v>44.312068612148998</v>
@@ -8841,10 +8841,10 @@
         <v>1145.0980456013499</v>
       </c>
       <c r="G90" s="59">
-        <v>2.3677526690379298</v>
+        <v>2.37053073981303</v>
       </c>
       <c r="H90" s="60">
-        <v>5.4472040044082597</v>
+        <v>5.4716463921109</v>
       </c>
       <c r="I90" s="57">
         <v>5915</v>
@@ -8859,10 +8859,10 @@
         <v>17.474969937162498</v>
       </c>
       <c r="M90" s="59">
-        <v>3.5908518299230002E-2</v>
+        <v>3.5896824012700002E-2</v>
       </c>
       <c r="N90" s="60">
-        <v>5.2302713327969999E-2</v>
+        <v>5.2322906425920003E-2</v>
       </c>
       <c r="O90" s="60">
         <v>28.7418315342419</v>
@@ -8924,10 +8924,10 @@
         <v>32.975695052719303</v>
       </c>
       <c r="G91" s="64">
-        <v>1.5491331236204</v>
+        <v>1.54857733157056</v>
       </c>
       <c r="H91" s="65">
-        <v>3.9185808281624599</v>
+        <v>3.9187426536746899</v>
       </c>
       <c r="I91" s="62">
         <v>486918</v>
@@ -8942,10 +8942,10 @@
         <v>149.706829497011</v>
       </c>
       <c r="M91" s="64">
-        <v>6.9979883859972203</v>
+        <v>6.9980940424756701</v>
       </c>
       <c r="N91" s="65">
-        <v>17.7916422490812</v>
+        <v>17.799520668098399</v>
       </c>
       <c r="O91" s="65">
         <v>6.7732861926830399</v>
@@ -9007,10 +9007,10 @@
         <v>205.36737924542101</v>
       </c>
       <c r="G92" s="54">
-        <v>5.1799593654404203</v>
+        <v>5.1797867808561104</v>
       </c>
       <c r="H92" s="55">
-        <v>11.622651485587401</v>
+        <v>11.622236748082299</v>
       </c>
       <c r="I92" s="52">
         <v>238734</v>
@@ -9025,10 +9025,10 @@
         <v>333.00788968536699</v>
       </c>
       <c r="M92" s="54">
-        <v>8.1935618632149794</v>
+        <v>8.1936828318877701</v>
       </c>
       <c r="N92" s="55">
-        <v>17.897424898186301</v>
+        <v>17.897590680954199</v>
       </c>
       <c r="O92" s="55">
         <v>54.139079457698699</v>
@@ -9090,10 +9090,10 @@
         <v>404.46612731800502</v>
       </c>
       <c r="G93" s="54">
-        <v>4.7073221036624204</v>
+        <v>4.7192862408085299</v>
       </c>
       <c r="H93" s="55">
-        <v>8.0750863833572808</v>
+        <v>8.0703575423847695</v>
       </c>
       <c r="I93" s="52">
         <v>2391</v>
@@ -9108,10 +9108,10 @@
         <v>131.66545154532301</v>
       </c>
       <c r="M93" s="54">
-        <v>1.7130545092234799</v>
+        <v>1.67659206567248</v>
       </c>
       <c r="N93" s="55">
-        <v>3.9354990975247399</v>
+        <v>3.8493932327855398</v>
       </c>
       <c r="O93" s="55">
         <v>4.4411050922922204</v>
@@ -9173,10 +9173,10 @@
         <v>537.98044744880701</v>
       </c>
       <c r="G94" s="54">
-        <v>2.7232451515251399</v>
+        <v>2.7264492781540799</v>
       </c>
       <c r="H94" s="55">
-        <v>10.896133130598001</v>
+        <v>10.8970337655085</v>
       </c>
       <c r="I94" s="52">
         <v>28114</v>
@@ -9191,10 +9191,10 @@
         <v>248.90341781324199</v>
       </c>
       <c r="M94" s="54">
-        <v>1.25730090041276</v>
+        <v>1.25568164866865</v>
       </c>
       <c r="N94" s="55">
-        <v>2.2842177260976499</v>
+        <v>2.2815276944946801</v>
       </c>
       <c r="O94" s="55">
         <v>5.85415792776356</v>
@@ -9256,10 +9256,10 @@
         <v>32.505210771318303</v>
       </c>
       <c r="G95" s="54">
-        <v>1.4663840285449099</v>
+        <v>1.4664090833735199</v>
       </c>
       <c r="H95" s="55">
-        <v>3.3153619381596502</v>
+        <v>3.31537751455883</v>
       </c>
       <c r="I95" s="52">
         <v>249366</v>
@@ -9274,10 +9274,10 @@
         <v>153.94291665227601</v>
       </c>
       <c r="M95" s="54">
-        <v>7.2142930290484397</v>
+        <v>7.2155228838800998</v>
       </c>
       <c r="N95" s="55">
-        <v>18.368008156861901</v>
+        <v>18.369664701881799</v>
       </c>
       <c r="O95" s="55">
         <v>6.56927891669066</v>
@@ -9339,10 +9339,10 @@
         <v>535.41497958265904</v>
       </c>
       <c r="G96" s="59">
-        <v>6.45575429957188</v>
+        <v>6.4591118695481002</v>
       </c>
       <c r="H96" s="60">
-        <v>12.3078802127432</v>
+        <v>12.3147424561439</v>
       </c>
       <c r="I96" s="57">
         <v>71126</v>
@@ -9357,10 +9357,10 @@
         <v>191.636453629203</v>
       </c>
       <c r="M96" s="59">
-        <v>2.4117236084704499</v>
+        <v>2.4102458839512702</v>
       </c>
       <c r="N96" s="60">
-        <v>5.2331812943828497</v>
+        <v>5.2296965665651101</v>
       </c>
       <c r="O96" s="60">
         <v>44.645192033118398</v>
@@ -9422,10 +9422,10 @@
         <v>89.044812680322806</v>
       </c>
       <c r="G97" s="64">
-        <v>2.8215506307062701</v>
+        <v>2.8202623504983202</v>
       </c>
       <c r="H97" s="65">
-        <v>6.2809089154568198</v>
+        <v>6.2790155604968403</v>
       </c>
       <c r="I97" s="62">
         <v>638947</v>
@@ -9440,10 +9440,10 @@
         <v>214.96430925799999</v>
       </c>
       <c r="M97" s="64">
-        <v>6.6828058757053599</v>
+        <v>6.6833234532570902</v>
       </c>
       <c r="N97" s="65">
-        <v>14.8873931106402</v>
+        <v>14.8940572560606</v>
       </c>
       <c r="O97" s="65">
         <v>6.9755589924956496</v>
@@ -9505,10 +9505,10 @@
         <v>327.14643311560701</v>
       </c>
       <c r="G98" s="59">
-        <v>5.4867720862872202</v>
+        <v>5.4867710516505603</v>
       </c>
       <c r="H98" s="60">
-        <v>13.753872070856</v>
+        <v>13.753868004150201</v>
       </c>
       <c r="I98" s="57">
         <v>388171</v>
@@ -9523,10 +9523,10 @@
         <v>257.87567787979299</v>
       </c>
       <c r="M98" s="59">
-        <v>4.3955380490666203</v>
+        <v>4.3955359532330798</v>
       </c>
       <c r="N98" s="60">
-        <v>9.3556160118247096</v>
+        <v>9.3556110302765898</v>
       </c>
       <c r="O98" s="60">
         <v>38.152937467574901</v>
@@ -10037,11 +10037,11 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B109" location="Indicators!A1" display="For more information about the indicators presented in this table, go to the List of indicators, descriptions and details." xr:uid="{19414EAC-ED78-487B-BF3A-FBDCA4148615}"/>
-    <hyperlink ref="B110" location="'Country groupings'!A1" display="To see which countries belong to each country grouping, see the list of countries, and country groupings used for aggregating indicators" xr:uid="{7ADAE013-3311-4AA6-A488-92F60A948139}"/>
-    <hyperlink ref="B107" r:id="rId1" xr:uid="{64315D8E-D474-41CA-8A1C-E22A60635643}"/>
-    <hyperlink ref="B113" display="To download the entire dataset as a flat file in compressed CSV form, click here." xr:uid="{8EA794DD-903C-428D-82F7-F05D6EDD1E66}"/>
-    <hyperlink ref="B112" display="To download all data for the Africa's Development Dynamics statistical annex in an Excel format, including historic data back to 2000, click here." xr:uid="{FF617E90-3182-4DA9-A599-5390219B821D}"/>
+    <hyperlink ref="B109" location="Indicators!A1" display="For more information about the indicators presented in this table, go to the List of indicators, descriptions and details." xr:uid="{69F69B1E-072F-4EC0-904F-71619B94D9DC}"/>
+    <hyperlink ref="B110" location="'Country groupings'!A1" display="To see which countries belong to each country grouping, see the list of countries, and country groupings used for aggregating indicators" xr:uid="{FC4EC50C-D24B-4382-AFC4-8499BC676B51}"/>
+    <hyperlink ref="B107" r:id="rId1" xr:uid="{E9D35A26-0F48-44D7-9EE1-29024602855E}"/>
+    <hyperlink ref="B113" display="To download the entire dataset as a flat file in compressed CSV form, click here." xr:uid="{8CBB8607-8FCC-4B00-B28E-4C8F65014DE1}"/>
+    <hyperlink ref="B112" display="To download all data for the Africa's Development Dynamics statistical annex in an Excel format, including historic data back to 2000, click here." xr:uid="{E2E571B6-B256-41A8-926C-EC6F61A999AD}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="49" fitToWidth="0" orientation="portrait" r:id="rId2"/>

--- a/AfDD_2023_Annex_Table_Tab30.xlsx
+++ b/AfDD_2023_Annex_Table_Tab30.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\main.oecd.org\ASgenDEV\AFRICASTATS\Statistical Annex (Final written files are in S)\Output tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{87573D73-CD0A-46B3-92A9-E6F85EC1CE5E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{B40F999D-BBC3-4244-9DF4-BA1AB5A115CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{AB1FC13F-0EDA-4817-B4A6-F9357FFD3724}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{66BB0476-3066-4DC2-9D5D-F21EC777C1D0}"/>
   </bookViews>
   <sheets>
     <sheet name="Tab30" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Tab30'!$A$2:$E$98</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">'Tab30'!$A$1:$E$98</definedName>
   </definedNames>
-  <calcPr calcId="191029" concurrentCalc="0"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -312,7 +312,7 @@
     <t>SSD</t>
   </si>
   <si>
-    <t>South Sudan</t>
+    <t>South Sudan*</t>
   </si>
   <si>
     <t>SDN</t>
@@ -444,7 +444,7 @@
     <t>NGA</t>
   </si>
   <si>
-    <t>Nigeria*</t>
+    <t>Nigeria</t>
   </si>
   <si>
     <t>SEN</t>
@@ -591,7 +591,7 @@
     <t>Regional Economic Communities:CEN-SAD = "Community of Sahel-Saharan States";COMESA = "Common Market for Eastern and Southern Africa";EAC = "East African Community";ECCAS = "Economic Community of Central African States";ECOWAS = "Economic Community of West African States";IGAD = "Intergovernmental Authority on Development";SADC = "Southern African Development Community";UMA = "Arab Maghreb Union";PALOP = "Pa&gt;ses Africanos de L&gt;ngua Oficial Portuguesa";ASEAN = "Association of Southeast Asian Nations";MERCOSUR = "Mercado Com&gt;n del Sur".EU27 = "European Union (27 members)".OECD = "Organisation for Economic Co-operation and Development".</t>
   </si>
   <si>
-    <t>Source: Author's calculations based on OECD Environment Statistics (database, accessed on 21 February 2023) and population data from United Nations Department of Economic and Social Affairs Population Division World Population Prospects: the 2022 Revision.</t>
+    <t>Source: Author's calculations based on OECD Environment Statistics (database, accessed on 21 February 2023) and population data from World Population Prospects: the 2022 Revision - United Nations Department of Economic and Social Affairs Population Division.</t>
   </si>
   <si>
     <t>If you would like to Implore these data further, look up historic values for these indicators, or produce interactive visualisations of these data, please visit the website https://oe.cd/AFDD-2022</t>
@@ -1465,7 +1465,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1F88466D-C50F-4C1E-8337-8D8C86DE7909}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{723BB3D9-912D-4D5B-88B2-FD13752E422C}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -4177,82 +4177,82 @@
       <c r="A34" s="11" t="s">
         <v>90</v>
       </c>
-      <c r="B34" s="17" t="s">
+      <c r="B34" s="33" t="s">
         <v>91</v>
       </c>
-      <c r="C34" s="18">
+      <c r="C34" s="34">
         <v>1390</v>
       </c>
-      <c r="D34" s="19">
+      <c r="D34" s="35">
         <v>133.04406936439199</v>
       </c>
-      <c r="E34" s="20">
+      <c r="E34" s="36">
         <v>3.47</v>
       </c>
-      <c r="F34" s="19" t="s">
+      <c r="F34" s="35" t="s">
         <v>89</v>
       </c>
-      <c r="G34" s="20" t="s">
+      <c r="G34" s="36" t="s">
         <v>89</v>
       </c>
-      <c r="H34" s="21" t="s">
+      <c r="H34" s="37" t="s">
         <v>89</v>
       </c>
-      <c r="I34" s="18">
+      <c r="I34" s="34">
         <v>7678</v>
       </c>
-      <c r="J34" s="19">
+      <c r="J34" s="35">
         <v>734.90098171208797</v>
       </c>
-      <c r="K34" s="20">
+      <c r="K34" s="36">
         <v>19.18</v>
       </c>
-      <c r="L34" s="19" t="s">
+      <c r="L34" s="35" t="s">
         <v>89</v>
       </c>
-      <c r="M34" s="20" t="s">
+      <c r="M34" s="36" t="s">
         <v>89</v>
       </c>
-      <c r="N34" s="21" t="s">
+      <c r="N34" s="37" t="s">
         <v>89</v>
       </c>
-      <c r="O34" s="21">
+      <c r="O34" s="37">
         <v>4.8814730486215803</v>
       </c>
-      <c r="P34" s="20">
+      <c r="P34" s="36">
         <v>107.105261596226</v>
       </c>
-      <c r="Q34" s="21">
+      <c r="Q34" s="37">
         <v>2.2014486297705198</v>
       </c>
-      <c r="R34" s="20">
+      <c r="R34" s="36">
         <v>36.467475127937703</v>
       </c>
-      <c r="S34" s="21">
+      <c r="S34" s="37">
         <v>1.0528667359771999</v>
       </c>
-      <c r="T34" s="20">
+      <c r="T34" s="36">
         <v>574.00380142320796</v>
       </c>
-      <c r="U34" s="20">
+      <c r="U34" s="36">
         <v>435.88682869456198</v>
       </c>
-      <c r="V34" s="21">
+      <c r="V34" s="37">
         <v>387.64638915524301</v>
       </c>
-      <c r="W34" s="20">
+      <c r="W34" s="36">
         <v>13.878697883335899</v>
       </c>
-      <c r="X34" s="21">
+      <c r="X34" s="37">
         <v>3.8286063126443799</v>
       </c>
-      <c r="Y34" s="20">
+      <c r="Y34" s="36">
         <v>50.059027537825202</v>
       </c>
-      <c r="Z34" s="20">
+      <c r="Z34" s="36">
         <v>19.9087528257507</v>
       </c>
-      <c r="AA34" s="21">
+      <c r="AA34" s="37">
         <v>8.2315035721854102</v>
       </c>
     </row>
@@ -6086,82 +6086,82 @@
       <c r="A57" s="11" t="s">
         <v>134</v>
       </c>
-      <c r="B57" s="38" t="s">
+      <c r="B57" s="22" t="s">
         <v>135</v>
       </c>
-      <c r="C57" s="34">
+      <c r="C57" s="23">
         <v>68533</v>
       </c>
-      <c r="D57" s="35">
+      <c r="D57" s="24">
         <v>337.09535547301101</v>
       </c>
-      <c r="E57" s="36">
+      <c r="E57" s="25">
         <v>8.02</v>
       </c>
-      <c r="F57" s="35">
+      <c r="F57" s="24">
         <v>207.57</v>
       </c>
-      <c r="G57" s="36">
+      <c r="G57" s="25">
         <v>4.1113200000000001</v>
       </c>
-      <c r="H57" s="37">
+      <c r="H57" s="26">
         <v>8.02</v>
       </c>
-      <c r="I57" s="34">
+      <c r="I57" s="23">
         <v>128259</v>
       </c>
-      <c r="J57" s="35">
+      <c r="J57" s="24">
         <v>630.87145167456504</v>
       </c>
-      <c r="K57" s="36">
+      <c r="K57" s="25">
         <v>15.01</v>
       </c>
-      <c r="L57" s="35">
+      <c r="L57" s="24">
         <v>388.46</v>
       </c>
-      <c r="M57" s="36">
+      <c r="M57" s="25">
         <v>7.6942789999999999</v>
       </c>
-      <c r="N57" s="37">
+      <c r="N57" s="26">
         <v>15.01</v>
       </c>
-      <c r="O57" s="37">
+      <c r="O57" s="26">
         <v>8.1060678187081106</v>
       </c>
-      <c r="P57" s="36">
+      <c r="P57" s="25">
         <v>95.669307690456804</v>
       </c>
-      <c r="Q57" s="37">
+      <c r="Q57" s="26">
         <v>13.580614834619601</v>
       </c>
-      <c r="R57" s="36">
+      <c r="R57" s="25">
         <v>26.915293145613301</v>
       </c>
-      <c r="S57" s="37">
+      <c r="S57" s="26">
         <v>1.38216326277729</v>
       </c>
-      <c r="T57" s="36">
+      <c r="T57" s="25">
         <v>773.67695348315306</v>
       </c>
-      <c r="U57" s="36">
+      <c r="U57" s="25">
         <v>507.814652713133</v>
       </c>
-      <c r="V57" s="37">
+      <c r="V57" s="26">
         <v>474.76078393781899</v>
       </c>
-      <c r="W57" s="36">
+      <c r="W57" s="25">
         <v>12.321419833655201</v>
       </c>
-      <c r="X57" s="37">
+      <c r="X57" s="26">
         <v>1.94781726711675</v>
       </c>
-      <c r="Y57" s="36">
+      <c r="Y57" s="25">
         <v>48.779050095951703</v>
       </c>
-      <c r="Z57" s="36">
+      <c r="Z57" s="25">
         <v>18.6124761080045</v>
       </c>
-      <c r="AA57" s="37">
+      <c r="AA57" s="26">
         <v>15.134933663935</v>
       </c>
     </row>
@@ -7086,79 +7086,79 @@
         <v>150</v>
       </c>
       <c r="C69" s="52">
-        <v>20447</v>
+        <v>31507</v>
       </c>
       <c r="D69" s="53">
-        <v>108.224901433537</v>
+        <v>112.99411484173601</v>
       </c>
       <c r="E69" s="54">
-        <v>3.22437829626588</v>
+        <v>3.4841386722793799</v>
       </c>
       <c r="F69" s="53">
-        <v>34.893218731310398</v>
+        <v>27.204208151041801</v>
       </c>
       <c r="G69" s="54">
-        <v>1.29717775044828</v>
+        <v>1.29465671088663</v>
       </c>
       <c r="H69" s="55">
-        <v>3.2269218576216101</v>
+        <v>3.35304303383738</v>
       </c>
       <c r="I69" s="52">
-        <v>109425</v>
+        <v>167463</v>
       </c>
       <c r="J69" s="53">
-        <v>579.18080106444995</v>
+        <v>600.57553730096697</v>
       </c>
       <c r="K69" s="54">
-        <v>17.098411890371999</v>
+        <v>18.404784404829599</v>
       </c>
       <c r="L69" s="53">
-        <v>176.15395701646099</v>
+        <v>138.13505228194799</v>
       </c>
       <c r="M69" s="54">
-        <v>6.4354124340619601</v>
+        <v>6.4805510300861897</v>
       </c>
       <c r="N69" s="55">
-        <v>15.9160719983542</v>
+        <v>16.7380457527902</v>
       </c>
       <c r="O69" s="55">
-        <v>5.0759368354654599</v>
+        <v>7.2300166794978598</v>
       </c>
       <c r="P69" s="54">
-        <v>14.783202900370201</v>
+        <v>14.603486070890501</v>
       </c>
       <c r="Q69" s="55">
-        <v>34.981091288416302</v>
+        <v>31.154342705752899</v>
       </c>
       <c r="R69" s="54">
-        <v>33.705490894936403</v>
+        <v>37.279773503660799</v>
       </c>
       <c r="S69" s="55">
-        <v>1.2014991258088199</v>
+        <v>1.3914913053795499</v>
       </c>
       <c r="T69" s="54">
-        <v>290.87923329493202</v>
+        <v>301.64160361899098</v>
       </c>
       <c r="U69" s="54">
-        <v>214.77723139678599</v>
+        <v>219.60817032195001</v>
       </c>
       <c r="V69" s="55">
-        <v>220.49361490283599</v>
+        <v>226.63018056920001</v>
       </c>
       <c r="W69" s="54">
-        <v>17.958971514842901</v>
+        <v>19.5884678092348</v>
       </c>
       <c r="X69" s="55">
-        <v>5.2770688477153902</v>
+        <v>5.5516199503287096</v>
       </c>
       <c r="Y69" s="54">
-        <v>43.0210788307229</v>
+        <v>36.985695444276502</v>
       </c>
       <c r="Z69" s="54">
-        <v>21.177083710841799</v>
+        <v>17.375709728257501</v>
       </c>
       <c r="AA69" s="55">
-        <v>8.6010399975300995</v>
+        <v>8.5999900780931799</v>
       </c>
     </row>
     <row r="70" spans="1:27" x14ac:dyDescent="0.35">
@@ -7750,79 +7750,79 @@
         <v>158</v>
       </c>
       <c r="C77" s="52">
-        <v>106866</v>
+        <v>94482</v>
       </c>
       <c r="D77" s="53">
-        <v>249.66919695827701</v>
+        <v>236.762165300737</v>
       </c>
       <c r="E77" s="54">
-        <v>7.5335654479895302</v>
+        <v>7.2927921170051899</v>
       </c>
       <c r="F77" s="53">
-        <v>381.49775458428599</v>
+        <v>384.47709782547503</v>
       </c>
       <c r="G77" s="54">
-        <v>2.7252611013311201</v>
+        <v>2.6385420178142902</v>
       </c>
       <c r="H77" s="55">
-        <v>7.3223615507939099</v>
+        <v>7.1986284199257904</v>
       </c>
       <c r="I77" s="52">
-        <v>24135</v>
+        <v>24047</v>
       </c>
       <c r="J77" s="53">
-        <v>56.386185209402498</v>
+        <v>60.259306418014297</v>
       </c>
       <c r="K77" s="54">
-        <v>1.7459198659908199</v>
+        <v>1.8668657399398301</v>
       </c>
       <c r="L77" s="53">
-        <v>83.965943213259195</v>
+        <v>89.886909178688001</v>
       </c>
       <c r="M77" s="54">
-        <v>0.58643690197107001</v>
+        <v>0.60571749259299001</v>
       </c>
       <c r="N77" s="55">
-        <v>1.6304713355768901</v>
+        <v>1.6848546504870101</v>
       </c>
       <c r="O77" s="55">
-        <v>12.0341926668172</v>
+        <v>12.4768614236825</v>
       </c>
       <c r="P77" s="54">
-        <v>25.084668348595599</v>
+        <v>22.2022478838777</v>
       </c>
       <c r="Q77" s="55">
-        <v>111.108937070179</v>
+        <v>116.361329626169</v>
       </c>
       <c r="R77" s="54">
-        <v>61.9605559535349</v>
+        <v>58.194447246872699</v>
       </c>
       <c r="S77" s="55">
-        <v>7.0018395306641503</v>
+        <v>6.8285694676711897</v>
       </c>
       <c r="T77" s="54">
-        <v>18.0594659900013</v>
+        <v>17.433525793243501</v>
       </c>
       <c r="U77" s="54">
-        <v>9.1138391755491703</v>
+        <v>9.0437824619542404</v>
       </c>
       <c r="V77" s="55">
-        <v>25.848632821911298</v>
+        <v>26.605109004867899</v>
       </c>
       <c r="W77" s="54">
-        <v>34.740525132124098</v>
+        <v>35.333148438225201</v>
       </c>
       <c r="X77" s="55">
-        <v>30.8482779989621</v>
+        <v>31.629432594842498</v>
       </c>
       <c r="Y77" s="54">
-        <v>117.24868825022099</v>
+        <v>116.356317832065</v>
       </c>
       <c r="Z77" s="54">
-        <v>151.437850643193</v>
+        <v>154.65143658617501</v>
       </c>
       <c r="AA77" s="55">
-        <v>27.640561724153301</v>
+        <v>27.484678870244998</v>
       </c>
     </row>
     <row r="78" spans="1:27" x14ac:dyDescent="0.35">
@@ -7999,79 +7999,79 @@
         <v>161</v>
       </c>
       <c r="C80" s="62">
-        <v>106442</v>
+        <v>39299</v>
       </c>
       <c r="D80" s="63">
-        <v>337.49665557530301</v>
+        <v>320.729609383916</v>
       </c>
       <c r="E80" s="64">
-        <v>8.8965973782310392</v>
+        <v>9.8883618830075495</v>
       </c>
       <c r="F80" s="63">
-        <v>266.63264616240502</v>
+        <v>373.76550576920999</v>
       </c>
       <c r="G80" s="64">
-        <v>4.2776910123578098</v>
+        <v>4.4524452303257398</v>
       </c>
       <c r="H80" s="65">
-        <v>10.506479961256</v>
+        <v>13.118250214764499</v>
       </c>
       <c r="I80" s="62">
-        <v>159223</v>
+        <v>38642</v>
       </c>
       <c r="J80" s="63">
-        <v>504.84987120372102</v>
+        <v>315.36765734021901</v>
       </c>
       <c r="K80" s="64">
-        <v>11.8753956081026</v>
+        <v>7.2972264019286799</v>
       </c>
       <c r="L80" s="63">
-        <v>285.629016110625</v>
+        <v>99.105416576030194</v>
       </c>
       <c r="M80" s="64">
-        <v>4.5424646131336104</v>
+        <v>1.23183465091191</v>
       </c>
       <c r="N80" s="65">
-        <v>9.0976797064157697</v>
+        <v>2.88744575616977</v>
       </c>
       <c r="O80" s="65">
-        <v>8.5799397792860894</v>
+        <v>9.0508444694969992</v>
       </c>
       <c r="P80" s="64">
-        <v>84.118921782875105</v>
+        <v>66.914223449419197</v>
       </c>
       <c r="Q80" s="65">
-        <v>37.2970552933268</v>
+        <v>73.6554295195766</v>
       </c>
       <c r="R80" s="64">
-        <v>39.205822383914501</v>
+        <v>59.365052002814402</v>
       </c>
       <c r="S80" s="65">
-        <v>1.7660851652115099</v>
+        <v>2.3422834650546802</v>
       </c>
       <c r="T80" s="64">
-        <v>628.97680486207003</v>
+        <v>384.19977840039701</v>
       </c>
       <c r="U80" s="64">
-        <v>420.15070959098301</v>
+        <v>276.03851442001502</v>
       </c>
       <c r="V80" s="65">
-        <v>381.10976409861399</v>
+        <v>226.279273003854</v>
       </c>
       <c r="W80" s="64">
-        <v>12.1216222380675</v>
+        <v>11.9399327852787</v>
       </c>
       <c r="X80" s="65">
-        <v>3.2531478985763198</v>
+        <v>5.4680485072704998</v>
       </c>
       <c r="Y80" s="64">
-        <v>71.0175503238913</v>
+        <v>106.12910863962</v>
       </c>
       <c r="Z80" s="64">
-        <v>27.9561452453679</v>
+        <v>42.773197353141299</v>
       </c>
       <c r="AA80" s="65">
-        <v>14.1477055784089</v>
+        <v>12.005222916708799</v>
       </c>
     </row>
     <row r="81" spans="1:27" x14ac:dyDescent="0.35">
@@ -8165,79 +8165,79 @@
         <v>163</v>
       </c>
       <c r="C82" s="52">
-        <v>276978</v>
+        <v>344121</v>
       </c>
       <c r="D82" s="53">
-        <v>274.094497924199</v>
+        <v>285.96277026178802</v>
       </c>
       <c r="E82" s="54">
-        <v>7.3390520255281402</v>
+        <v>7.48768570892861</v>
       </c>
       <c r="F82" s="53">
-        <v>261.268907798052</v>
+        <v>251.72723928924199</v>
       </c>
       <c r="G82" s="54">
-        <v>5.5140858198604299</v>
+        <v>5.2471486786844599</v>
       </c>
       <c r="H82" s="55">
-        <v>12.127807806646199</v>
+        <v>11.3461189054185</v>
       </c>
       <c r="I82" s="52">
-        <v>537711</v>
+        <v>658292</v>
       </c>
       <c r="J82" s="53">
-        <v>532.11311574680599</v>
+        <v>547.03724550717004</v>
       </c>
       <c r="K82" s="54">
-        <v>14.34298336746</v>
+        <v>14.413677712217201</v>
       </c>
       <c r="L82" s="53">
-        <v>141.938762565106</v>
+        <v>185.74270615426499</v>
       </c>
       <c r="M82" s="54">
-        <v>3.15011076846478</v>
+        <v>4.0148361984509204</v>
       </c>
       <c r="N82" s="55">
-        <v>7.3872034443110399</v>
+        <v>8.8377716657010392</v>
       </c>
       <c r="O82" s="55">
-        <v>8.5025522827254001</v>
+        <v>8.4670062745294796</v>
       </c>
       <c r="P82" s="54">
-        <v>40.516759556753499</v>
+        <v>49.256387272201401</v>
       </c>
       <c r="Q82" s="55">
-        <v>68.1856796946727</v>
+        <v>59.533300276137602</v>
       </c>
       <c r="R82" s="54">
-        <v>70.292515566404902</v>
+        <v>63.257819082933302</v>
       </c>
       <c r="S82" s="55">
-        <v>2.0712106526704201</v>
+        <v>1.9636407720790201</v>
       </c>
       <c r="T82" s="54">
-        <v>315.102093832469</v>
+        <v>390.328241360466</v>
       </c>
       <c r="U82" s="54">
-        <v>230.973139018268</v>
+        <v>275.96507151913801</v>
       </c>
       <c r="V82" s="55">
-        <v>220.511199687149</v>
+        <v>262.01433039274599</v>
       </c>
       <c r="W82" s="54">
-        <v>18.324227260152</v>
+        <v>17.348678966861499</v>
       </c>
       <c r="X82" s="55">
-        <v>7.3457222526385797</v>
+        <v>6.4643087456634403</v>
       </c>
       <c r="Y82" s="54">
-        <v>76.357709111659105</v>
+        <v>71.926757099999904</v>
       </c>
       <c r="Z82" s="54">
-        <v>38.529664004645397</v>
+        <v>35.3264210164415</v>
       </c>
       <c r="AA82" s="55">
-        <v>13.9710234086961</v>
+        <v>14.217490465298299</v>
       </c>
     </row>
     <row r="83" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -8331,79 +8331,79 @@
         <v>165</v>
       </c>
       <c r="C84" s="62">
-        <v>73209</v>
+        <v>76158</v>
       </c>
       <c r="D84" s="63">
-        <v>133.968787514198</v>
+        <v>134.83024685497699</v>
       </c>
       <c r="E84" s="64">
-        <v>3.8884902650006499</v>
+        <v>3.8914680673942699</v>
       </c>
       <c r="F84" s="63">
-        <v>19.194354123591399</v>
+        <v>21.129184584756501</v>
       </c>
       <c r="G84" s="64">
-        <v>1.16981847410522</v>
+        <v>1.23236261361852</v>
       </c>
       <c r="H84" s="65">
-        <v>3.1920298551358202</v>
+        <v>3.2464627458376398</v>
       </c>
       <c r="I84" s="62">
-        <v>407558</v>
+        <v>416380</v>
       </c>
       <c r="J84" s="63">
-        <v>745.81063942563503</v>
+        <v>737.15982806107297</v>
       </c>
       <c r="K84" s="64">
-        <v>19.8565405306922</v>
+        <v>19.597953535402201</v>
       </c>
       <c r="L84" s="63">
-        <v>125.655010559193</v>
+        <v>128.91160963294999</v>
       </c>
       <c r="M84" s="64">
-        <v>7.6258954187636903</v>
+        <v>7.5279995149322296</v>
       </c>
       <c r="N84" s="65">
-        <v>20.592975240407402</v>
+        <v>19.9931562684474</v>
       </c>
       <c r="O84" s="65">
-        <v>7.2905196008218001</v>
+        <v>7.2285498294187098</v>
       </c>
       <c r="P84" s="64">
-        <v>50.7097361090294</v>
+        <v>49.344634054753399</v>
       </c>
       <c r="Q84" s="65">
-        <v>34.015105005039104</v>
+        <v>33.897879888288003</v>
       </c>
       <c r="R84" s="64">
-        <v>60.060779070926799</v>
+        <v>59.209311901807297</v>
       </c>
       <c r="S84" s="65">
-        <v>1.260835342612</v>
+        <v>1.26760756254318</v>
       </c>
       <c r="T84" s="64">
-        <v>462.616773756665</v>
+        <v>458.034767271014</v>
       </c>
       <c r="U84" s="64">
-        <v>347.42144020452298</v>
+        <v>343.433129368018</v>
       </c>
       <c r="V84" s="65">
-        <v>303.678322599593</v>
+        <v>300.833725499423</v>
       </c>
       <c r="W84" s="64">
-        <v>18.248258398442498</v>
+        <v>18.1182902165739</v>
       </c>
       <c r="X84" s="65">
-        <v>4.4138386739915099</v>
+        <v>4.4844273127400403</v>
       </c>
       <c r="Y84" s="64">
-        <v>46.6948264694201</v>
+        <v>46.802337323172402</v>
       </c>
       <c r="Z84" s="64">
-        <v>23.3904170526366</v>
+        <v>23.519785570371699</v>
       </c>
       <c r="AA84" s="65">
-        <v>9.79572073875479</v>
+        <v>9.7602241512577308</v>
       </c>
     </row>
     <row r="85" spans="1:27" x14ac:dyDescent="0.35">
@@ -8497,79 +8497,79 @@
         <v>167</v>
       </c>
       <c r="C86" s="52">
-        <v>278473</v>
+        <v>275524</v>
       </c>
       <c r="D86" s="53">
-        <v>395.196237759859</v>
+        <v>401.483749435817</v>
       </c>
       <c r="E86" s="54">
-        <v>10.6353346389243</v>
+        <v>10.813586967354601</v>
       </c>
       <c r="F86" s="53">
-        <v>390.53733981303202</v>
+        <v>399.08705777375002</v>
       </c>
       <c r="G86" s="54">
-        <v>5.9686185909816301</v>
+        <v>6.0234276940211</v>
       </c>
       <c r="H86" s="55">
-        <v>13.946863752426299</v>
+        <v>14.087171256429301</v>
       </c>
       <c r="I86" s="52">
-        <v>283200</v>
+        <v>274378</v>
       </c>
       <c r="J86" s="53">
-        <v>401.904581534268</v>
+        <v>399.81383909459998</v>
       </c>
       <c r="K86" s="54">
-        <v>10.3336328837312</v>
+        <v>10.291412450923501</v>
       </c>
       <c r="L86" s="53">
-        <v>220.15912066125799</v>
+        <v>220.34042056348099</v>
       </c>
       <c r="M86" s="54">
-        <v>3.5114542190289901</v>
+        <v>3.4734832434519101</v>
       </c>
       <c r="N86" s="55">
-        <v>7.1934129627193899</v>
+        <v>7.12701569161666</v>
       </c>
       <c r="O86" s="55">
-        <v>9.2897859841925001</v>
+        <v>9.3943385426050394</v>
       </c>
       <c r="P86" s="54">
-        <v>55.371154864839397</v>
+        <v>56.619577851940697</v>
       </c>
       <c r="Q86" s="55">
-        <v>70.744856601282606</v>
+        <v>71.825087808832805</v>
       </c>
       <c r="R86" s="54">
-        <v>67.219676585282897</v>
+        <v>68.1122330536665</v>
       </c>
       <c r="S86" s="55">
-        <v>2.1202169661447599</v>
+        <v>2.1376600964792298</v>
       </c>
       <c r="T86" s="54">
-        <v>359.32142873229998</v>
+        <v>360.32614246577202</v>
       </c>
       <c r="U86" s="54">
-        <v>241.08314442753601</v>
+        <v>241.51770462914101</v>
       </c>
       <c r="V86" s="55">
-        <v>239.208441206467</v>
+        <v>239.82302249403199</v>
       </c>
       <c r="W86" s="54">
-        <v>15.176439247625201</v>
+        <v>15.201138463852301</v>
       </c>
       <c r="X86" s="55">
-        <v>5.1557886465889604</v>
+        <v>5.1175611852999703</v>
       </c>
       <c r="Y86" s="54">
-        <v>91.3268557043599</v>
+        <v>92.433763162960801</v>
       </c>
       <c r="Z86" s="54">
-        <v>40.076925785761702</v>
+        <v>40.417367481966203</v>
       </c>
       <c r="AA86" s="55">
-        <v>16.328792779425399</v>
+        <v>16.532986676655302</v>
       </c>
     </row>
     <row r="87" spans="1:27" x14ac:dyDescent="0.35">
@@ -8580,79 +8580,79 @@
         <v>168</v>
       </c>
       <c r="C87" s="52">
-        <v>1531502</v>
+        <v>1534712</v>
       </c>
       <c r="D87" s="53">
-        <v>585.32543946067699</v>
+        <v>585.34582572565296</v>
       </c>
       <c r="E87" s="54">
-        <v>14.0539120851671</v>
+        <v>14.054645606910601</v>
       </c>
       <c r="F87" s="53">
-        <v>488.52676606593201</v>
+        <v>489.13101406382299</v>
       </c>
       <c r="G87" s="54">
-        <v>6.7069917560805097</v>
+        <v>6.7010541903778602</v>
       </c>
       <c r="H87" s="55">
-        <v>13.6762043480241</v>
+        <v>13.678789002450699</v>
       </c>
       <c r="I87" s="52">
-        <v>1114555</v>
+        <v>1114535</v>
       </c>
       <c r="J87" s="53">
-        <v>425.97227765820401</v>
+        <v>425.08849209176799</v>
       </c>
       <c r="K87" s="54">
-        <v>10.338906999878599</v>
+        <v>10.3173379334873</v>
       </c>
       <c r="L87" s="53">
-        <v>329.729276079366</v>
+        <v>329.04667467566702</v>
       </c>
       <c r="M87" s="54">
-        <v>4.55701134056046</v>
+        <v>4.5348090603425</v>
       </c>
       <c r="N87" s="55">
-        <v>9.3294750770453501</v>
+        <v>9.2839129828572204</v>
       </c>
       <c r="O87" s="55">
-        <v>78.598230544894605</v>
+        <v>78.468604403623004</v>
       </c>
       <c r="P87" s="54">
-        <v>70.577963939247098</v>
+        <v>70.428982207099395</v>
       </c>
       <c r="Q87" s="55">
-        <v>97.947768677404497</v>
+        <v>98.404990941622103</v>
       </c>
       <c r="R87" s="54">
-        <v>139.968844338959</v>
+        <v>139.920472533225</v>
       </c>
       <c r="S87" s="55">
-        <v>3.6021449968180801</v>
+        <v>3.6183830247364202</v>
       </c>
       <c r="T87" s="54">
-        <v>259.26233187230901</v>
+        <v>258.74089387065902</v>
       </c>
       <c r="U87" s="54">
-        <v>142.97056813789899</v>
+        <v>142.67573752433799</v>
       </c>
       <c r="V87" s="55">
-        <v>93.145163475280796</v>
+        <v>92.968071998055294</v>
       </c>
       <c r="W87" s="54">
-        <v>79.233048883325907</v>
+        <v>79.104405447391898</v>
       </c>
       <c r="X87" s="55">
-        <v>13.912878972856101</v>
+        <v>13.9136305199098</v>
       </c>
       <c r="Y87" s="54">
-        <v>173.684539318726</v>
+        <v>173.83227709508699</v>
       </c>
       <c r="Z87" s="54">
-        <v>46.449898603000797</v>
+        <v>46.579005681030303</v>
       </c>
       <c r="AA87" s="55">
-        <v>22.519425729709798</v>
+        <v>22.514679912850799</v>
       </c>
     </row>
     <row r="88" spans="1:27" x14ac:dyDescent="0.35">
@@ -8746,79 +8746,79 @@
         <v>170</v>
       </c>
       <c r="C89" s="52">
-        <v>1831718</v>
+        <v>1813286</v>
       </c>
       <c r="D89" s="53">
-        <v>746.38577334646902</v>
+        <v>747.75132393357001</v>
       </c>
       <c r="E89" s="54">
-        <v>15.2096926182305</v>
+        <v>15.2868445491288</v>
       </c>
       <c r="F89" s="53">
-        <v>1344.2695061919701</v>
+        <v>1339.4422329291799</v>
       </c>
       <c r="G89" s="54">
-        <v>7.7603079984928502</v>
+        <v>7.7752774382502601</v>
       </c>
       <c r="H89" s="55">
-        <v>14.593895113401601</v>
+        <v>14.7172367274402</v>
       </c>
       <c r="I89" s="52">
-        <v>424815</v>
+        <v>422247</v>
       </c>
       <c r="J89" s="53">
-        <v>173.10299527775601</v>
+        <v>174.123526722744</v>
       </c>
       <c r="K89" s="54">
-        <v>3.5320718896293202</v>
+        <v>3.5618232310577</v>
       </c>
       <c r="L89" s="53">
-        <v>298.96534520655899</v>
+        <v>299.29789458118103</v>
       </c>
       <c r="M89" s="54">
-        <v>1.7143155773396299</v>
+        <v>1.7267704572973299</v>
       </c>
       <c r="N89" s="55">
-        <v>3.23709719108105</v>
+        <v>3.27758794660466</v>
       </c>
       <c r="O89" s="55">
-        <v>44.312068612148998</v>
+        <v>44.740476620992297</v>
       </c>
       <c r="P89" s="54">
-        <v>15.0995247178478</v>
+        <v>15.2598860533649</v>
       </c>
       <c r="Q89" s="55">
-        <v>336.643284217038</v>
+        <v>333.75212046951799</v>
       </c>
       <c r="R89" s="54">
-        <v>145.21597906877301</v>
+        <v>145.02067039710801</v>
       </c>
       <c r="S89" s="55">
-        <v>16.2225355695962</v>
+        <v>16.181128735251502</v>
       </c>
       <c r="T89" s="54">
-        <v>8.9734923719895399</v>
+        <v>9.0074771264328692</v>
       </c>
       <c r="U89" s="54">
-        <v>3.4831265459888598</v>
+        <v>3.4932169911648101</v>
       </c>
       <c r="V89" s="55">
-        <v>11.036963690296499</v>
+        <v>11.0936753035433</v>
       </c>
       <c r="W89" s="54">
-        <v>97.319729233119105</v>
+        <v>98.005128478009595</v>
       </c>
       <c r="X89" s="55">
-        <v>45.4106307515952</v>
+        <v>45.453470621431897</v>
       </c>
       <c r="Y89" s="54">
-        <v>236.08817538925999</v>
+        <v>235.726785683804</v>
       </c>
       <c r="Z89" s="54">
-        <v>203.16064966063701</v>
+        <v>201.56410495944399</v>
       </c>
       <c r="AA89" s="55">
-        <v>36.487665718363601</v>
+        <v>35.5795965054538</v>
       </c>
     </row>
     <row r="90" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -8829,79 +8829,79 @@
         <v>171</v>
       </c>
       <c r="C90" s="57">
-        <v>314607</v>
+        <v>329829</v>
       </c>
       <c r="D90" s="58">
-        <v>267.15458957937898</v>
+        <v>274.54626291693</v>
       </c>
       <c r="E90" s="59">
-        <v>5.7903807422619504</v>
+        <v>5.8243595613362897</v>
       </c>
       <c r="F90" s="58">
-        <v>1145.0980456013499</v>
+        <v>1161.25585839826</v>
       </c>
       <c r="G90" s="59">
-        <v>2.37053073981303</v>
+        <v>2.4282613496296301</v>
       </c>
       <c r="H90" s="60">
-        <v>5.4716463921109</v>
+        <v>5.4958374728989998</v>
       </c>
       <c r="I90" s="57">
-        <v>5915</v>
+        <v>8503</v>
       </c>
       <c r="J90" s="58">
-        <v>5.0228361014282203</v>
+        <v>7.0778096334241498</v>
       </c>
       <c r="K90" s="59">
-        <v>7.623428614536E-2</v>
+        <v>0.10098513991268</v>
       </c>
       <c r="L90" s="58">
-        <v>17.474969937162498</v>
+        <v>23.7211102793345</v>
       </c>
       <c r="M90" s="59">
-        <v>3.5896824012700002E-2</v>
+        <v>5.0101234396989998E-2</v>
       </c>
       <c r="N90" s="60">
-        <v>5.2322906425920003E-2</v>
+        <v>6.7596769365120005E-2</v>
       </c>
       <c r="O90" s="60">
-        <v>28.7418315342419</v>
+        <v>28.313735702801701</v>
       </c>
       <c r="P90" s="59">
-        <v>10.1569133743335</v>
+        <v>10.0069889936523</v>
       </c>
       <c r="Q90" s="60">
-        <v>386.26925832317301</v>
+        <v>391.19818810071098</v>
       </c>
       <c r="R90" s="59">
-        <v>58.173188497792303</v>
+        <v>60.416509327671598</v>
       </c>
       <c r="S90" s="60">
-        <v>26.086479296005901</v>
+        <v>25.996362773311699</v>
       </c>
       <c r="T90" s="59">
-        <v>1.91572582330043</v>
+        <v>2.0010648428497801</v>
       </c>
       <c r="U90" s="59">
-        <v>1.07929411410233</v>
+        <v>1.12372609727421</v>
       </c>
       <c r="V90" s="60">
-        <v>5.5238459576991596</v>
+        <v>5.5362239059042704</v>
       </c>
       <c r="W90" s="59">
-        <v>40.392433615661197</v>
+        <v>40.495758986955799</v>
       </c>
       <c r="X90" s="60">
-        <v>161.50604676905101</v>
+        <v>159.26528357182301</v>
       </c>
       <c r="Y90" s="59">
-        <v>116.273348440264</v>
+        <v>119.328058074697</v>
       </c>
       <c r="Z90" s="59">
-        <v>179.93301944884701</v>
+        <v>184.03636870425501</v>
       </c>
       <c r="AA90" s="60">
-        <v>113.62988457149901</v>
+        <v>114.01158505003799</v>
       </c>
     </row>
     <row r="91" spans="1:27" x14ac:dyDescent="0.35">
@@ -9161,79 +9161,79 @@
         <v>175</v>
       </c>
       <c r="C94" s="52">
-        <v>18618</v>
+        <v>17994</v>
       </c>
       <c r="D94" s="53">
-        <v>300.25540578264997</v>
+        <v>297.35748447664702</v>
       </c>
       <c r="E94" s="54">
-        <v>7.1997837567599001</v>
+        <v>6.8190276598646902</v>
       </c>
       <c r="F94" s="53">
-        <v>537.98044744880701</v>
+        <v>508.23843231728301</v>
       </c>
       <c r="G94" s="54">
-        <v>2.7264492781540799</v>
+        <v>2.6639432279954001</v>
       </c>
       <c r="H94" s="55">
-        <v>10.8970337655085</v>
+        <v>10.0081339501253</v>
       </c>
       <c r="I94" s="52">
-        <v>28114</v>
+        <v>28112</v>
       </c>
       <c r="J94" s="53">
-        <v>453.39888700039899</v>
+        <v>464.56116503320601</v>
       </c>
       <c r="K94" s="54">
-        <v>9.4732226245947899</v>
+        <v>9.7056539893182006</v>
       </c>
       <c r="L94" s="53">
-        <v>248.90341781324199</v>
+        <v>256.33948437836602</v>
       </c>
       <c r="M94" s="54">
-        <v>1.25568164866865</v>
+        <v>1.35017174840191</v>
       </c>
       <c r="N94" s="55">
-        <v>2.2815276944946801</v>
+        <v>2.4499761501163402</v>
       </c>
       <c r="O94" s="55">
-        <v>5.85415792776356</v>
+        <v>5.6847268344985302</v>
       </c>
       <c r="P94" s="54">
-        <v>21.626517303391001</v>
+        <v>20.309678138368302</v>
       </c>
       <c r="Q94" s="55">
-        <v>29.657841402636901</v>
+        <v>29.084648920690199</v>
       </c>
       <c r="R94" s="54">
-        <v>120.260208449953</v>
+        <v>122.70086263416199</v>
       </c>
       <c r="S94" s="55">
-        <v>3.87051763819079</v>
+        <v>3.8999870143652702</v>
       </c>
       <c r="T94" s="54">
-        <v>120.80853178203</v>
+        <v>123.692384756458</v>
       </c>
       <c r="U94" s="54">
-        <v>82.796823143631201</v>
+        <v>84.824717562444704</v>
       </c>
       <c r="V94" s="55">
-        <v>82.119482556947801</v>
+        <v>84.064550602017604</v>
       </c>
       <c r="W94" s="54">
-        <v>29.964257382326998</v>
+        <v>30.4893052606099</v>
       </c>
       <c r="X94" s="55">
-        <v>24.819694354898399</v>
+        <v>24.936781375750801</v>
       </c>
       <c r="Y94" s="54">
-        <v>148.063426817623</v>
+        <v>149.27365551170101</v>
       </c>
       <c r="Z94" s="54">
-        <v>90.828147242877094</v>
+        <v>91.682745574993803</v>
       </c>
       <c r="AA94" s="55">
-        <v>22.465129458332399</v>
+        <v>22.557128282239798</v>
       </c>
     </row>
     <row r="95" spans="1:27" x14ac:dyDescent="0.35">
@@ -9283,7 +9283,7 @@
         <v>6.56927891669066</v>
       </c>
       <c r="P95" s="54">
-        <v>53.8034031600505</v>
+        <v>53.803403160050401</v>
       </c>
       <c r="Q95" s="55">
         <v>41.228604583295699</v>
@@ -9410,79 +9410,79 @@
         <v>178</v>
       </c>
       <c r="C97" s="62">
-        <v>187217</v>
+        <v>189521</v>
       </c>
       <c r="D97" s="63">
-        <v>192.95851476035099</v>
+        <v>192.88976830182301</v>
       </c>
       <c r="E97" s="64">
-        <v>5.1212568629392203</v>
+        <v>5.11886444829263</v>
       </c>
       <c r="F97" s="63">
-        <v>89.044812680322806</v>
+        <v>88.930981660816101</v>
       </c>
       <c r="G97" s="64">
-        <v>2.8202623504983202</v>
+        <v>2.8162027335573998</v>
       </c>
       <c r="H97" s="65">
-        <v>6.2790155604968403</v>
+        <v>6.2616806476161297</v>
       </c>
       <c r="I97" s="62">
-        <v>638947</v>
+        <v>648838</v>
       </c>
       <c r="J97" s="63">
-        <v>658.54203480764204</v>
+        <v>660.37120680778605</v>
       </c>
       <c r="K97" s="64">
-        <v>17.1362030717066</v>
+        <v>17.186536380317001</v>
       </c>
       <c r="L97" s="63">
-        <v>214.96430925799999</v>
+        <v>216.727021859719</v>
       </c>
       <c r="M97" s="64">
-        <v>6.6833234532570902</v>
+        <v>6.7355674580362797</v>
       </c>
       <c r="N97" s="65">
-        <v>14.8940572560606</v>
+        <v>14.9745749126114</v>
       </c>
       <c r="O97" s="65">
-        <v>6.9755589924956496</v>
+        <v>7.0053465063051004</v>
       </c>
       <c r="P97" s="64">
-        <v>53.641100438007697</v>
+        <v>53.950226297576798</v>
       </c>
       <c r="Q97" s="65">
-        <v>29.588408326915701</v>
+        <v>29.2498406573736</v>
       </c>
       <c r="R97" s="64">
-        <v>48.299149749753397</v>
+        <v>48.287325242647</v>
       </c>
       <c r="S97" s="65">
-        <v>1.4728241430668301</v>
+        <v>1.47679177403003</v>
       </c>
       <c r="T97" s="64">
-        <v>491.18530571123699</v>
+        <v>489.52746649856402</v>
       </c>
       <c r="U97" s="64">
-        <v>349.37264488758802</v>
+        <v>348.39970787532098</v>
       </c>
       <c r="V97" s="65">
-        <v>322.06716551581098</v>
+        <v>321.79302933866097</v>
       </c>
       <c r="W97" s="64">
-        <v>16.2989790052196</v>
+        <v>16.301704923941401</v>
       </c>
       <c r="X97" s="65">
-        <v>4.4298097738986897</v>
+        <v>4.4222331207170802</v>
       </c>
       <c r="Y97" s="64">
-        <v>51.552967678138302</v>
+        <v>51.575756822172202</v>
       </c>
       <c r="Z97" s="64">
-        <v>24.279439005056201</v>
+        <v>24.169107000614201</v>
       </c>
       <c r="AA97" s="65">
-        <v>11.514619542577</v>
+        <v>11.5568370738187</v>
       </c>
     </row>
     <row r="98" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -9493,79 +9493,79 @@
         <v>179</v>
       </c>
       <c r="C98" s="57">
-        <v>362946</v>
+        <v>366733</v>
       </c>
       <c r="D98" s="58">
-        <v>452.560822344808</v>
+        <v>453.08028497205999</v>
       </c>
       <c r="E98" s="59">
-        <v>12.5981461750034</v>
+        <v>12.601236223046101</v>
       </c>
       <c r="F98" s="58">
-        <v>327.14643311560701</v>
+        <v>332.56779721687798</v>
       </c>
       <c r="G98" s="59">
-        <v>5.4867710516505603</v>
+        <v>5.5022302910274403</v>
       </c>
       <c r="H98" s="60">
-        <v>13.753868004150201</v>
+        <v>13.764076393125899</v>
       </c>
       <c r="I98" s="57">
-        <v>388171</v>
+        <v>389203</v>
       </c>
       <c r="J98" s="58">
-        <v>484.01411496588099</v>
+        <v>480.84084647953898</v>
       </c>
       <c r="K98" s="59">
-        <v>12.2189103931667</v>
+        <v>12.1395914362278</v>
       </c>
       <c r="L98" s="58">
-        <v>257.87567787979299</v>
+        <v>255.86193390530599</v>
       </c>
       <c r="M98" s="59">
-        <v>4.3955359532330798</v>
+        <v>4.3152344234030497</v>
       </c>
       <c r="N98" s="60">
-        <v>9.3556110302765898</v>
+        <v>9.1831150100233998</v>
       </c>
       <c r="O98" s="60">
-        <v>38.152937467574901</v>
+        <v>37.8529525601976</v>
       </c>
       <c r="P98" s="59">
-        <v>60.1484213857402</v>
+        <v>59.862494316126998</v>
       </c>
       <c r="Q98" s="60">
-        <v>129.04391304846101</v>
+        <v>130.16577658506699</v>
       </c>
       <c r="R98" s="59">
-        <v>138.26979658080199</v>
+        <v>137.60318558706999</v>
       </c>
       <c r="S98" s="60">
-        <v>4.0262708374011202</v>
+        <v>4.0201543010830303</v>
       </c>
       <c r="T98" s="59">
-        <v>152.30999776665999</v>
+        <v>151.19684194073201</v>
       </c>
       <c r="U98" s="59">
-        <v>84.635230523207895</v>
+        <v>84.0760788726501</v>
       </c>
       <c r="V98" s="60">
-        <v>70.885559255316196</v>
+        <v>70.392234668963695</v>
       </c>
       <c r="W98" s="59">
-        <v>40.805114014850297</v>
+        <v>40.556117160925801</v>
       </c>
       <c r="X98" s="60">
-        <v>11.8044924179859</v>
+        <v>11.772603053171499</v>
       </c>
       <c r="Y98" s="59">
-        <v>153.38608068170399</v>
+        <v>154.050731441501</v>
       </c>
       <c r="Z98" s="59">
-        <v>51.728041402782701</v>
+        <v>53.518458564417898</v>
       </c>
       <c r="AA98" s="60">
-        <v>24.228698866999402</v>
+        <v>24.5829841066227</v>
       </c>
     </row>
     <row r="99" spans="1:27" x14ac:dyDescent="0.35">
@@ -10037,11 +10037,11 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B109" location="Indicators!A1" display="For more information about the indicators presented in this table, go to the List of indicators, descriptions and details." xr:uid="{69F69B1E-072F-4EC0-904F-71619B94D9DC}"/>
-    <hyperlink ref="B110" location="'Country groupings'!A1" display="To see which countries belong to each country grouping, see the list of countries, and country groupings used for aggregating indicators" xr:uid="{FC4EC50C-D24B-4382-AFC4-8499BC676B51}"/>
-    <hyperlink ref="B107" r:id="rId1" xr:uid="{E9D35A26-0F48-44D7-9EE1-29024602855E}"/>
-    <hyperlink ref="B113" display="To download the entire dataset as a flat file in compressed CSV form, click here." xr:uid="{8CBB8607-8FCC-4B00-B28E-4C8F65014DE1}"/>
-    <hyperlink ref="B112" display="To download all data for the Africa's Development Dynamics statistical annex in an Excel format, including historic data back to 2000, click here." xr:uid="{E2E571B6-B256-41A8-926C-EC6F61A999AD}"/>
+    <hyperlink ref="B109" location="Indicators!A1" display="For more information about the indicators presented in this table, go to the List of indicators, descriptions and details." xr:uid="{F89583F2-1416-4AF6-91E5-31CF926BFF22}"/>
+    <hyperlink ref="B110" location="'Country groupings'!A1" display="To see which countries belong to each country grouping, see the list of countries, and country groupings used for aggregating indicators" xr:uid="{9175E60F-3B17-4207-BF7A-1702E7F57922}"/>
+    <hyperlink ref="B107" r:id="rId1" xr:uid="{2130F965-6565-4AAD-BE13-7AEEEB2FCAF7}"/>
+    <hyperlink ref="B113" display="To download the entire dataset as a flat file in compressed CSV form, click here." xr:uid="{F00D8EB0-7CD6-4D26-88B9-3E0D8FD2E7D7}"/>
+    <hyperlink ref="B112" display="To download all data for the Africa's Development Dynamics statistical annex in an Excel format, including historic data back to 2000, click here." xr:uid="{906A1712-2670-41A5-99D3-3FB2F4021469}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="49" fitToWidth="0" orientation="portrait" r:id="rId2"/>

--- a/AfDD_2023_Annex_Table_Tab30.xlsx
+++ b/AfDD_2023_Annex_Table_Tab30.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\main.oecd.org\ASgenDEV\AFRICASTATS\Statistical Annex (Final written files are in S)\Output tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B40F999D-BBC3-4244-9DF4-BA1AB5A115CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{48D14E3D-B896-44AB-8F87-2805369AF7A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{66BB0476-3066-4DC2-9D5D-F21EC777C1D0}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{9170462F-6256-40D5-859A-B1E125F118BB}"/>
   </bookViews>
   <sheets>
     <sheet name="Tab30" sheetId="1" r:id="rId1"/>
@@ -1465,7 +1465,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{723BB3D9-912D-4D5B-88B2-FD13752E422C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B593B319-9FCF-4F80-A9E5-0D67925148D0}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -10037,11 +10037,11 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B109" location="Indicators!A1" display="For more information about the indicators presented in this table, go to the List of indicators, descriptions and details." xr:uid="{F89583F2-1416-4AF6-91E5-31CF926BFF22}"/>
-    <hyperlink ref="B110" location="'Country groupings'!A1" display="To see which countries belong to each country grouping, see the list of countries, and country groupings used for aggregating indicators" xr:uid="{9175E60F-3B17-4207-BF7A-1702E7F57922}"/>
-    <hyperlink ref="B107" r:id="rId1" xr:uid="{2130F965-6565-4AAD-BE13-7AEEEB2FCAF7}"/>
-    <hyperlink ref="B113" display="To download the entire dataset as a flat file in compressed CSV form, click here." xr:uid="{F00D8EB0-7CD6-4D26-88B9-3E0D8FD2E7D7}"/>
-    <hyperlink ref="B112" display="To download all data for the Africa's Development Dynamics statistical annex in an Excel format, including historic data back to 2000, click here." xr:uid="{906A1712-2670-41A5-99D3-3FB2F4021469}"/>
+    <hyperlink ref="B109" location="Indicators!A1" display="For more information about the indicators presented in this table, go to the List of indicators, descriptions and details." xr:uid="{EFB4A383-6832-46E7-B198-AF986F045902}"/>
+    <hyperlink ref="B110" location="'Country groupings'!A1" display="To see which countries belong to each country grouping, see the list of countries, and country groupings used for aggregating indicators" xr:uid="{54A3AB83-19AA-450E-BD3B-787F4EE78DB2}"/>
+    <hyperlink ref="B107" r:id="rId1" xr:uid="{FE88C759-30A4-4530-938F-277A553A5442}"/>
+    <hyperlink ref="B113" display="To download the entire dataset as a flat file in compressed CSV form, click here." xr:uid="{3A2E581F-1287-4799-9923-DA7528FD4CC6}"/>
+    <hyperlink ref="B112" display="To download all data for the Africa's Development Dynamics statistical annex in an Excel format, including historic data back to 2000, click here." xr:uid="{9BF5686B-49BC-48E8-9430-ABBC16BAE472}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="49" fitToWidth="0" orientation="portrait" r:id="rId2"/>

--- a/AfDD_2023_Annex_Table_Tab30.xlsx
+++ b/AfDD_2023_Annex_Table_Tab30.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\main.oecd.org\ASgenDEV\AFRICASTATS\Statistical Annex (Final written files are in S)\Output tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{48D14E3D-B896-44AB-8F87-2805369AF7A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{B3A99662-D589-4802-9335-D4ED0BBE6B44}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{9170462F-6256-40D5-859A-B1E125F118BB}"/>
+    <workbookView xWindow="57480" yWindow="-120" windowWidth="19440" windowHeight="15000" xr2:uid="{781105D1-C3D2-4AA5-A26B-F99547950F4D}"/>
   </bookViews>
   <sheets>
     <sheet name="Tab30" sheetId="1" r:id="rId1"/>
@@ -588,7 +588,7 @@
     <t>ROW = "Rest of world"; LAC = "Latin American and Caribbean countries".</t>
   </si>
   <si>
-    <t>Regional Economic Communities:CEN-SAD = "Community of Sahel-Saharan States";COMESA = "Common Market for Eastern and Southern Africa";EAC = "East African Community";ECCAS = "Economic Community of Central African States";ECOWAS = "Economic Community of West African States";IGAD = "Intergovernmental Authority on Development";SADC = "Southern African Development Community";UMA = "Arab Maghreb Union";PALOP = "Pa&gt;ses Africanos de L&gt;ngua Oficial Portuguesa";ASEAN = "Association of Southeast Asian Nations";MERCOSUR = "Mercado Com&gt;n del Sur".EU27 = "European Union (27 members)".OECD = "Organisation for Economic Co-operation and Development".</t>
+    <t>Regional Economic Communities:CEN-SAD = "Community of Sahel-Saharan States";COMESA = "Common Market for Eastern and Southern Africa";EAC = "East African Community";ECCAS = "Economic Community of Central African States";ECOWAS = "Economic Community of West African States";IGAD = "Intergovernmental Authority on Development";SADC = "Southern African Development Community";UMA = "Arab Maghreb Union";PALOP = "Países Africanos de Língua Oficial Portuguesa";ASEAN = "Association of Southeast Asian Nations";MERCOSUR = "Mercado Común del Sur".EU27 = "European Union (27 members)".OECD = "Organisation for Economic Co-operation and Development".</t>
   </si>
   <si>
     <t>Source: Author's calculations based on OECD Environment Statistics (database, accessed on 21 February 2023) and population data from World Population Prospects: the 2022 Revision - United Nations Department of Economic and Social Affairs Population Division.</t>
@@ -1465,7 +1465,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B593B319-9FCF-4F80-A9E5-0D67925148D0}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{99ABACD3-87E1-40B5-8844-94C30CF19F59}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -6941,7 +6941,7 @@
         <v>285276</v>
       </c>
       <c r="J67" s="63">
-        <v>480.13494270018703</v>
+        <v>480.13494270018799</v>
       </c>
       <c r="K67" s="64">
         <v>14.3195980989662</v>
@@ -7238,7 +7238,7 @@
         <v>40.624535108929599</v>
       </c>
       <c r="Z70" s="54">
-        <v>21.416995666563999</v>
+        <v>21.416995666564102</v>
       </c>
       <c r="AA70" s="55">
         <v>10.9441731638632</v>
@@ -7430,7 +7430,7 @@
         <v>135.19491260158301</v>
       </c>
       <c r="G73" s="54">
-        <v>3.3716196462049099</v>
+        <v>3.3716196462049002</v>
       </c>
       <c r="H73" s="55">
         <v>5.57524911130447</v>
@@ -7439,7 +7439,7 @@
         <v>192307</v>
       </c>
       <c r="J73" s="53">
-        <v>532.44890633368902</v>
+        <v>532.448906333688</v>
       </c>
       <c r="K73" s="54">
         <v>14.712294858994801</v>
@@ -7487,7 +7487,7 @@
         <v>62.277365099365397</v>
       </c>
       <c r="Z73" s="54">
-        <v>33.903273713676697</v>
+        <v>33.903273713676597</v>
       </c>
       <c r="AA73" s="55">
         <v>12.055112596925101</v>
@@ -9410,79 +9410,79 @@
         <v>178</v>
       </c>
       <c r="C97" s="62">
-        <v>189521</v>
+        <v>151565</v>
       </c>
       <c r="D97" s="63">
-        <v>192.88976830182301</v>
+        <v>194.53015348871301</v>
       </c>
       <c r="E97" s="64">
-        <v>5.11886444829263</v>
+        <v>4.9890148902285496</v>
       </c>
       <c r="F97" s="63">
-        <v>88.930981660816101</v>
+        <v>99.856380264071007</v>
       </c>
       <c r="G97" s="64">
-        <v>2.8162027335573998</v>
+        <v>2.8724759546599001</v>
       </c>
       <c r="H97" s="65">
-        <v>6.2616806476161297</v>
+        <v>6.3505367373854504</v>
       </c>
       <c r="I97" s="62">
-        <v>648838</v>
+        <v>502570</v>
       </c>
       <c r="J97" s="63">
-        <v>660.37120680778605</v>
+        <v>645.036909832893</v>
       </c>
       <c r="K97" s="64">
-        <v>17.186536380317001</v>
+        <v>16.920450870827398</v>
       </c>
       <c r="L97" s="63">
-        <v>216.727021859719</v>
+        <v>238.89370811806299</v>
       </c>
       <c r="M97" s="64">
-        <v>6.7355674580362797</v>
+        <v>6.7360112134466297</v>
       </c>
       <c r="N97" s="65">
-        <v>14.9745749126114</v>
+        <v>14.857275743775601</v>
       </c>
       <c r="O97" s="65">
-        <v>7.0053465063051004</v>
+        <v>6.2813352104625801</v>
       </c>
       <c r="P97" s="64">
-        <v>53.950226297576798</v>
+        <v>52.924163752232197</v>
       </c>
       <c r="Q97" s="65">
-        <v>29.2498406573736</v>
+        <v>28.780682623500802</v>
       </c>
       <c r="R97" s="64">
-        <v>48.287325242647</v>
+        <v>40.726000728072698</v>
       </c>
       <c r="S97" s="65">
-        <v>1.47679177403003</v>
+        <v>1.47343130805293</v>
       </c>
       <c r="T97" s="64">
-        <v>489.52746649856402</v>
+        <v>486.05264491258202</v>
       </c>
       <c r="U97" s="64">
-        <v>348.39970787532098</v>
+        <v>342.30966638872502</v>
       </c>
       <c r="V97" s="65">
-        <v>321.79302933866097</v>
+        <v>322.56594355616602</v>
       </c>
       <c r="W97" s="64">
-        <v>16.301704923941401</v>
+        <v>15.2169003382191</v>
       </c>
       <c r="X97" s="65">
-        <v>4.4222331207170802</v>
+        <v>4.18798463255811</v>
       </c>
       <c r="Y97" s="64">
-        <v>51.575756822172202</v>
+        <v>50.405982370350799</v>
       </c>
       <c r="Z97" s="64">
-        <v>24.169107000614201</v>
+        <v>23.722500755001999</v>
       </c>
       <c r="AA97" s="65">
-        <v>11.5568370738187</v>
+        <v>12.104469221469699</v>
       </c>
     </row>
     <row r="98" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -9493,79 +9493,79 @@
         <v>179</v>
       </c>
       <c r="C98" s="57">
-        <v>366733</v>
+        <v>309098</v>
       </c>
       <c r="D98" s="58">
-        <v>453.08028497205999</v>
+        <v>463.218566831445</v>
       </c>
       <c r="E98" s="59">
-        <v>12.601236223046101</v>
+        <v>12.3684217244649</v>
       </c>
       <c r="F98" s="58">
-        <v>332.56779721687798</v>
+        <v>339.28523209115502</v>
       </c>
       <c r="G98" s="59">
-        <v>5.5022302910274403</v>
+        <v>5.4585414286006797</v>
       </c>
       <c r="H98" s="60">
-        <v>13.764076393125899</v>
+        <v>13.1823106611737</v>
       </c>
       <c r="I98" s="57">
-        <v>389203</v>
+        <v>339093</v>
       </c>
       <c r="J98" s="58">
-        <v>480.84084647953898</v>
+        <v>508.169491496467</v>
       </c>
       <c r="K98" s="59">
-        <v>12.1395914362278</v>
+        <v>12.613547866275701</v>
       </c>
       <c r="L98" s="58">
-        <v>255.86193390530599</v>
+        <v>289.16659480733102</v>
       </c>
       <c r="M98" s="59">
-        <v>4.3152344234030497</v>
+        <v>4.66566129352994</v>
       </c>
       <c r="N98" s="60">
-        <v>9.1831150100233998</v>
+        <v>9.7790711468714004</v>
       </c>
       <c r="O98" s="60">
-        <v>37.8529525601976</v>
+        <v>43.865928183693299</v>
       </c>
       <c r="P98" s="59">
-        <v>59.862494316126998</v>
+        <v>61.477639024278297</v>
       </c>
       <c r="Q98" s="60">
-        <v>130.16577658506699</v>
+        <v>129.57615436694499</v>
       </c>
       <c r="R98" s="59">
-        <v>137.60318558706999</v>
+        <v>130.90392630404199</v>
       </c>
       <c r="S98" s="60">
-        <v>4.0201543010830303</v>
+        <v>4.3609665202605798</v>
       </c>
       <c r="T98" s="59">
-        <v>151.19684194073201</v>
+        <v>163.844958978216</v>
       </c>
       <c r="U98" s="59">
-        <v>84.0760788726501</v>
+        <v>89.073115829803399</v>
       </c>
       <c r="V98" s="60">
-        <v>70.392234668963695</v>
+        <v>72.233191160329895</v>
       </c>
       <c r="W98" s="59">
-        <v>40.556117160925801</v>
+        <v>46.840676823802298</v>
       </c>
       <c r="X98" s="60">
-        <v>11.772603053171499</v>
+        <v>12.6408084530577</v>
       </c>
       <c r="Y98" s="59">
-        <v>154.050731441501</v>
+        <v>155.36580139346199</v>
       </c>
       <c r="Z98" s="59">
-        <v>53.518458564417898</v>
+        <v>54.738372205854901</v>
       </c>
       <c r="AA98" s="60">
-        <v>24.5829841066227</v>
+        <v>27.358695805456101</v>
       </c>
     </row>
     <row r="99" spans="1:27" x14ac:dyDescent="0.35">
@@ -10037,11 +10037,11 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B109" location="Indicators!A1" display="For more information about the indicators presented in this table, go to the List of indicators, descriptions and details." xr:uid="{EFB4A383-6832-46E7-B198-AF986F045902}"/>
-    <hyperlink ref="B110" location="'Country groupings'!A1" display="To see which countries belong to each country grouping, see the list of countries, and country groupings used for aggregating indicators" xr:uid="{54A3AB83-19AA-450E-BD3B-787F4EE78DB2}"/>
-    <hyperlink ref="B107" r:id="rId1" xr:uid="{FE88C759-30A4-4530-938F-277A553A5442}"/>
-    <hyperlink ref="B113" display="To download the entire dataset as a flat file in compressed CSV form, click here." xr:uid="{3A2E581F-1287-4799-9923-DA7528FD4CC6}"/>
-    <hyperlink ref="B112" display="To download all data for the Africa's Development Dynamics statistical annex in an Excel format, including historic data back to 2000, click here." xr:uid="{9BF5686B-49BC-48E8-9430-ABBC16BAE472}"/>
+    <hyperlink ref="B109" location="Indicators!A1" display="For more information about the indicators presented in this table, go to the List of indicators, descriptions and details." xr:uid="{C4798725-6F06-4E02-BAAA-F18938307763}"/>
+    <hyperlink ref="B110" location="'Country groupings'!A1" display="To see which countries belong to each country grouping, see the list of countries, and country groupings used for aggregating indicators" xr:uid="{FA754A91-CE30-4368-8E33-A69325404F69}"/>
+    <hyperlink ref="B107" r:id="rId1" xr:uid="{EC8A197E-2077-45D0-AC0E-88405470CAAB}"/>
+    <hyperlink ref="B113" display="To download the entire dataset as a flat file in compressed CSV form, click here." xr:uid="{0E40AB68-CBB6-4A45-B9C3-A106BD787A8C}"/>
+    <hyperlink ref="B112" display="To download all data for the Africa's Development Dynamics statistical annex in an Excel format, including historic data back to 2000, click here." xr:uid="{93BD8490-356F-433E-AF75-AC8E161296C5}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="49" fitToWidth="0" orientation="portrait" r:id="rId2"/>

--- a/AfDD_2023_Annex_Table_Tab30.xlsx
+++ b/AfDD_2023_Annex_Table_Tab30.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\main.oecd.org\ASgenDEV\AFRICASTATS\Statistical Annex (Final written files are in S)\Output tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B3A99662-D589-4802-9335-D4ED0BBE6B44}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{082BDD4E-9065-4F1D-9479-EA17A57D7C8D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="57480" yWindow="-120" windowWidth="19440" windowHeight="15000" xr2:uid="{781105D1-C3D2-4AA5-A26B-F99547950F4D}"/>
+    <workbookView xWindow="28680" yWindow="-10695" windowWidth="29040" windowHeight="15840" xr2:uid="{3D5634DD-C746-44AE-86B4-320218084EF3}"/>
   </bookViews>
   <sheets>
     <sheet name="Tab30" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="190">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="249" uniqueCount="191">
   <si>
     <t>Table 30: Environmental causes of premature deaths</t>
   </si>
@@ -597,16 +597,19 @@
     <t>If you would like to Implore these data further, look up historic values for these indicators, or produce interactive visualisations of these data, please visit the website https://oe.cd/AFDD-2022</t>
   </si>
   <si>
-    <t>For more information about the indicators presented in this table, go to the List of indicators, descriptions and details.</t>
-  </si>
-  <si>
-    <t>To see which countries belong to each country grouping, see the list of countries, and country groupings used for aggregating indicators.</t>
-  </si>
-  <si>
     <t>To download all data for the Africa's Development Dynamics statistical annex in an Excel format, including historic data back to 2000, click here.</t>
   </si>
   <si>
     <t>To download the entire dataset as a flat file in compressed CSV form, click here.</t>
+  </si>
+  <si>
+    <t>For more information about the indicators presented in this table, go to the List of indicators, descriptions and details, click here.</t>
+  </si>
+  <si>
+    <t>To see which countries belong to each country grouping, see the list of countries, and country groupings used for aggregating indicators, click here.</t>
+  </si>
+  <si>
+    <t>To see the full list of sources used in the Statistical Annex, click here.</t>
   </si>
 </sst>
 </file>
@@ -1465,7 +1468,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{99ABACD3-87E1-40B5-8844-94C30CF19F59}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{860EC382-4764-46E6-BFCB-701CC98F9E73}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -9861,7 +9864,7 @@
     </row>
     <row r="109" spans="1:27" x14ac:dyDescent="0.35">
       <c r="B109" s="2" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="C109" s="68"/>
       <c r="D109" s="68"/>
@@ -9891,7 +9894,7 @@
     </row>
     <row r="110" spans="1:27" x14ac:dyDescent="0.35">
       <c r="B110" s="2" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="C110" s="68"/>
       <c r="D110" s="68"/>
@@ -9920,7 +9923,9 @@
       <c r="AA110" s="69"/>
     </row>
     <row r="111" spans="1:27" x14ac:dyDescent="0.35">
-      <c r="B111" s="2"/>
+      <c r="B111" s="2" t="s">
+        <v>190</v>
+      </c>
       <c r="C111" s="68"/>
       <c r="D111" s="68"/>
       <c r="E111" s="69"/>
@@ -9949,7 +9954,7 @@
     </row>
     <row r="112" spans="1:27" x14ac:dyDescent="0.35">
       <c r="B112" s="2" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="C112" s="68"/>
       <c r="D112" s="68"/>
@@ -9979,7 +9984,7 @@
     </row>
     <row r="113" spans="2:27" x14ac:dyDescent="0.35">
       <c r="B113" s="2" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="C113" s="68"/>
       <c r="D113" s="68"/>
@@ -10037,13 +10042,14 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B109" location="Indicators!A1" display="For more information about the indicators presented in this table, go to the List of indicators, descriptions and details." xr:uid="{C4798725-6F06-4E02-BAAA-F18938307763}"/>
-    <hyperlink ref="B110" location="'Country groupings'!A1" display="To see which countries belong to each country grouping, see the list of countries, and country groupings used for aggregating indicators" xr:uid="{FA754A91-CE30-4368-8E33-A69325404F69}"/>
-    <hyperlink ref="B107" r:id="rId1" xr:uid="{EC8A197E-2077-45D0-AC0E-88405470CAAB}"/>
-    <hyperlink ref="B113" display="To download the entire dataset as a flat file in compressed CSV form, click here." xr:uid="{0E40AB68-CBB6-4A45-B9C3-A106BD787A8C}"/>
-    <hyperlink ref="B112" display="To download all data for the Africa's Development Dynamics statistical annex in an Excel format, including historic data back to 2000, click here." xr:uid="{93BD8490-356F-433E-AF75-AC8E161296C5}"/>
+    <hyperlink ref="B109" r:id="rId1" location="Indicators!A1" display="For more information about the indicators presented in this table, go to the List of indicators, descriptions and details." xr:uid="{4367EBDC-248A-4E08-9042-59B1EBFC0ACF}"/>
+    <hyperlink ref="B110" r:id="rId2" location="'Country groupings'!A1" display="To see which countries belong to each country grouping, see the list of countries, and country groupings used for aggregating indicators" xr:uid="{54CDD463-4DD0-4390-9A46-7578FEF95D55}"/>
+    <hyperlink ref="B107" r:id="rId3" xr:uid="{6972E76B-E2F2-4C40-B7C5-BBBBD61FC742}"/>
+    <hyperlink ref="B113" r:id="rId4" xr:uid="{5FA6D7AA-23BB-4154-A90A-DAC042A3663E}"/>
+    <hyperlink ref="B112" r:id="rId5" xr:uid="{E24B28E7-790E-4D6B-BDEC-61835F4DDA83}"/>
+    <hyperlink ref="B111" r:id="rId6" xr:uid="{6481BE15-3CF9-4995-94D6-10333F993AA5}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="49" fitToWidth="0" orientation="portrait" r:id="rId2"/>
+  <pageSetup paperSize="9" scale="49" fitToWidth="0" orientation="portrait" r:id="rId7"/>
 </worksheet>
 </file>
--- a/AfDD_2023_Annex_Table_Tab30.xlsx
+++ b/AfDD_2023_Annex_Table_Tab30.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\main.oecd.org\ASgenDEV\AFRICASTATS\Statistical Annex (Final written files are in S)\Output tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{082BDD4E-9065-4F1D-9479-EA17A57D7C8D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{26CE353F-9912-47A2-BC3C-A2DED6FC6194}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-10695" windowWidth="29040" windowHeight="15840" xr2:uid="{3D5634DD-C746-44AE-86B4-320218084EF3}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14160" xr2:uid="{26BA9980-900D-4CB3-ABB0-CDD848D57BA4}"/>
   </bookViews>
   <sheets>
     <sheet name="Tab30" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Tab30'!$A$2:$E$98</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">'Tab30'!$A$1:$E$98</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -1468,7 +1468,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{860EC382-4764-46E6-BFCB-701CC98F9E73}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C6BB918-C395-4CEE-9C67-2E5103685874}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -1476,21 +1476,21 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="5.453125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="33.26953125" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="12.36328125" style="71" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.36328125" style="72" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.36328125" style="71" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="12.36328125" style="72" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="12.36328125" style="71" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="12.36328125" style="72" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="12.36328125" style="71" bestFit="1" customWidth="1"/>
-    <col min="13" max="27" width="12.36328125" style="72" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="33.21875" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="12.33203125" style="71" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.33203125" style="72" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.33203125" style="71" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="12.33203125" style="72" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="12.33203125" style="71" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.33203125" style="72" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.33203125" style="71" bestFit="1" customWidth="1"/>
+    <col min="13" max="27" width="12.33203125" style="72" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
         <v>0</v>
@@ -1520,7 +1520,7 @@
       <c r="Z1" s="4"/>
       <c r="AA1" s="4"/>
     </row>
-    <row r="2" spans="1:27" ht="63.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:27" ht="61.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="5" t="s">
         <v>1</v>
       </c>
@@ -1603,7 +1603,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="3" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A3" s="11" t="s">
         <v>28</v>
       </c>
@@ -1686,7 +1686,7 @@
         <v>8.6852809030021696</v>
       </c>
     </row>
-    <row r="4" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A4" s="11" t="s">
         <v>30</v>
       </c>
@@ -1769,7 +1769,7 @@
         <v>18.802241227154301</v>
       </c>
     </row>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A5" s="11" t="s">
         <v>32</v>
       </c>
@@ -1852,7 +1852,7 @@
         <v>23.084558738659702</v>
       </c>
     </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A6" s="11" t="s">
         <v>34</v>
       </c>
@@ -1935,7 +1935,7 @@
         <v>27.407083248341401</v>
       </c>
     </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A7" s="11" t="s">
         <v>36</v>
       </c>
@@ -2018,7 +2018,7 @@
         <v>9.0632822215450997</v>
       </c>
     </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A8" s="11" t="s">
         <v>38</v>
       </c>
@@ -2101,7 +2101,7 @@
         <v>9.8066423988037901</v>
       </c>
     </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A9" s="11" t="s">
         <v>40</v>
       </c>
@@ -2184,7 +2184,7 @@
         <v>13.8965865078859</v>
       </c>
     </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A10" s="11" t="s">
         <v>42</v>
       </c>
@@ -2267,7 +2267,7 @@
         <v>24.979748069513899</v>
       </c>
     </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A11" s="11" t="s">
         <v>44</v>
       </c>
@@ -2350,7 +2350,7 @@
         <v>8.7048883443014002</v>
       </c>
     </row>
-    <row r="12" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="11" t="s">
         <v>46</v>
       </c>
@@ -2433,7 +2433,7 @@
         <v>12.048500358980201</v>
       </c>
     </row>
-    <row r="13" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="27" t="s">
         <v>48</v>
       </c>
@@ -2453,10 +2453,10 @@
         <v>239.960588364899</v>
       </c>
       <c r="G13" s="31">
-        <v>3.8232899426087101</v>
+        <v>3.8232215962359799</v>
       </c>
       <c r="H13" s="32">
-        <v>6.0675759319709703</v>
+        <v>6.0674919746544003</v>
       </c>
       <c r="I13" s="29">
         <v>73079</v>
@@ -2471,10 +2471,10 @@
         <v>154.90191934504301</v>
       </c>
       <c r="M13" s="31">
-        <v>2.3143969157089601</v>
+        <v>2.31456772197732</v>
       </c>
       <c r="N13" s="32">
-        <v>4.4166704886044803</v>
+        <v>4.4169535711834804</v>
       </c>
       <c r="O13" s="32">
         <v>6.5173000932827101</v>
@@ -2516,7 +2516,7 @@
         <v>14.939149031393001</v>
       </c>
     </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A14" s="11" t="s">
         <v>50</v>
       </c>
@@ -2599,7 +2599,7 @@
         <v>8.4211675140326108</v>
       </c>
     </row>
-    <row r="15" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A15" s="11" t="s">
         <v>52</v>
       </c>
@@ -2682,7 +2682,7 @@
         <v>21.565148021275501</v>
       </c>
     </row>
-    <row r="16" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A16" s="11" t="s">
         <v>54</v>
       </c>
@@ -2765,7 +2765,7 @@
         <v>13.0535171166163</v>
       </c>
     </row>
-    <row r="17" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A17" s="11" t="s">
         <v>56</v>
       </c>
@@ -2848,7 +2848,7 @@
         <v>11.657565704334599</v>
       </c>
     </row>
-    <row r="18" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A18" s="11" t="s">
         <v>58</v>
       </c>
@@ -2931,7 +2931,7 @@
         <v>14.719789069012799</v>
       </c>
     </row>
-    <row r="19" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A19" s="11" t="s">
         <v>60</v>
       </c>
@@ -3014,7 +3014,7 @@
         <v>8.5977837738576</v>
       </c>
     </row>
-    <row r="20" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A20" s="11" t="s">
         <v>62</v>
       </c>
@@ -3097,7 +3097,7 @@
         <v>10.302434400858701</v>
       </c>
     </row>
-    <row r="21" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A21" s="11" t="s">
         <v>64</v>
       </c>
@@ -3180,7 +3180,7 @@
         <v>18.280834640487299</v>
       </c>
     </row>
-    <row r="22" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A22" s="11" t="s">
         <v>66</v>
       </c>
@@ -3263,7 +3263,7 @@
         <v>18.639415840707599</v>
       </c>
     </row>
-    <row r="23" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A23" s="27" t="s">
         <v>48</v>
       </c>
@@ -3283,10 +3283,10 @@
         <v>55.941530659303197</v>
       </c>
       <c r="G23" s="31">
-        <v>3.1035845591530702</v>
+        <v>3.1099331854721499</v>
       </c>
       <c r="H23" s="32">
-        <v>6.84518140226076</v>
+        <v>6.8548770760273099</v>
       </c>
       <c r="I23" s="29">
         <v>108015</v>
@@ -3301,10 +3301,10 @@
         <v>102.614885484895</v>
       </c>
       <c r="M23" s="31">
-        <v>5.7223818562038904</v>
+        <v>5.7101125237588004</v>
       </c>
       <c r="N23" s="32">
-        <v>13.13257770968</v>
+        <v>13.0979600927452</v>
       </c>
       <c r="O23" s="32">
         <v>10.6195422659265</v>
@@ -3346,7 +3346,7 @@
         <v>11.5344760915708</v>
       </c>
     </row>
-    <row r="24" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A24" s="11" t="s">
         <v>69</v>
       </c>
@@ -3429,7 +3429,7 @@
         <v>15.1709385501134</v>
       </c>
     </row>
-    <row r="25" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A25" s="11" t="s">
         <v>71</v>
       </c>
@@ -3512,7 +3512,7 @@
         <v>13.9665584723937</v>
       </c>
     </row>
-    <row r="26" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A26" s="11" t="s">
         <v>73</v>
       </c>
@@ -3595,7 +3595,7 @@
         <v>20.578378183718002</v>
       </c>
     </row>
-    <row r="27" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A27" s="11" t="s">
         <v>75</v>
       </c>
@@ -3678,7 +3678,7 @@
         <v>6.6859098192215898</v>
       </c>
     </row>
-    <row r="28" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A28" s="11" t="s">
         <v>77</v>
       </c>
@@ -3761,7 +3761,7 @@
         <v>8.7534309622199196</v>
       </c>
     </row>
-    <row r="29" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A29" s="11" t="s">
         <v>79</v>
       </c>
@@ -3844,7 +3844,7 @@
         <v>9.1162887595723792</v>
       </c>
     </row>
-    <row r="30" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A30" s="11" t="s">
         <v>81</v>
       </c>
@@ -3927,7 +3927,7 @@
         <v>33.171871178966903</v>
       </c>
     </row>
-    <row r="31" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A31" s="11" t="s">
         <v>83</v>
       </c>
@@ -4010,7 +4010,7 @@
         <v>9.3494147422194995</v>
       </c>
     </row>
-    <row r="32" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A32" s="11" t="s">
         <v>85</v>
       </c>
@@ -4093,7 +4093,7 @@
         <v>9.5811137086574991</v>
       </c>
     </row>
-    <row r="33" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A33" s="11" t="s">
         <v>87</v>
       </c>
@@ -4176,7 +4176,7 @@
         <v>10.1994205727945</v>
       </c>
     </row>
-    <row r="34" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A34" s="11" t="s">
         <v>90</v>
       </c>
@@ -4259,7 +4259,7 @@
         <v>8.2315035721854102</v>
       </c>
     </row>
-    <row r="35" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A35" s="11" t="s">
         <v>92</v>
       </c>
@@ -4342,7 +4342,7 @@
         <v>8.6972425785631096</v>
       </c>
     </row>
-    <row r="36" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A36" s="11" t="s">
         <v>94</v>
       </c>
@@ -4425,7 +4425,7 @@
         <v>9.3531965609832906</v>
       </c>
     </row>
-    <row r="37" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A37" s="11" t="s">
         <v>96</v>
       </c>
@@ -4508,7 +4508,7 @@
         <v>7.2876997598085902</v>
       </c>
     </row>
-    <row r="38" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A38" s="27" t="s">
         <v>48</v>
       </c>
@@ -4528,10 +4528,10 @@
         <v>33.978604430136599</v>
       </c>
       <c r="G38" s="31">
-        <v>1.3236006663155799</v>
+        <v>1.3245840392668</v>
       </c>
       <c r="H38" s="32">
-        <v>3.3057872835409698</v>
+        <v>3.3073516857373502</v>
       </c>
       <c r="I38" s="29">
         <v>232273</v>
@@ -4546,10 +4546,10 @@
         <v>158.25531077769</v>
       </c>
       <c r="M38" s="31">
-        <v>6.1651227782007902</v>
+        <v>6.1628548334160396</v>
       </c>
       <c r="N38" s="32">
-        <v>17.0923600897172</v>
+        <v>17.085642495615101</v>
       </c>
       <c r="O38" s="32">
         <v>5.5863544031636296</v>
@@ -4591,7 +4591,7 @@
         <v>8.3730328211214804</v>
       </c>
     </row>
-    <row r="39" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A39" s="11" t="s">
         <v>99</v>
       </c>
@@ -4674,7 +4674,7 @@
         <v>13.792177133329</v>
       </c>
     </row>
-    <row r="40" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A40" s="11" t="s">
         <v>101</v>
       </c>
@@ -4757,7 +4757,7 @@
         <v>25.412173572985001</v>
       </c>
     </row>
-    <row r="41" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A41" s="11" t="s">
         <v>103</v>
       </c>
@@ -4840,7 +4840,7 @@
         <v>13.3960756805206</v>
       </c>
     </row>
-    <row r="42" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A42" s="11" t="s">
         <v>105</v>
       </c>
@@ -4923,7 +4923,7 @@
         <v>18.933138192747599</v>
       </c>
     </row>
-    <row r="43" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A43" s="11" t="s">
         <v>107</v>
       </c>
@@ -5006,7 +5006,7 @@
         <v>18.482604095899301</v>
       </c>
     </row>
-    <row r="44" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A44" s="11" t="s">
         <v>109</v>
       </c>
@@ -5089,7 +5089,7 @@
         <v>18.5902699522977</v>
       </c>
     </row>
-    <row r="45" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="45" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A45" s="27" t="s">
         <v>48</v>
       </c>
@@ -5109,10 +5109,10 @@
         <v>982.67086028343897</v>
       </c>
       <c r="G45" s="31">
-        <v>8.4204550988883593</v>
+        <v>8.4205414941992895</v>
       </c>
       <c r="H45" s="32">
-        <v>21.0528836209864</v>
+        <v>21.0530827814597</v>
       </c>
       <c r="I45" s="29">
         <v>3055</v>
@@ -5127,10 +5127,10 @@
         <v>11.135804655657401</v>
       </c>
       <c r="M45" s="31">
-        <v>0.11268827452914</v>
+        <v>0.11268289160202</v>
       </c>
       <c r="N45" s="32">
-        <v>0.27802832054030002</v>
+        <v>0.27801480739246998</v>
       </c>
       <c r="O45" s="32">
         <v>15.489039176129101</v>
@@ -5172,7 +5172,7 @@
         <v>20.897680654609601</v>
       </c>
     </row>
-    <row r="46" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A46" s="11" t="s">
         <v>112</v>
       </c>
@@ -5255,7 +5255,7 @@
         <v>14.8896166810573</v>
       </c>
     </row>
-    <row r="47" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A47" s="11" t="s">
         <v>114</v>
       </c>
@@ -5338,7 +5338,7 @@
         <v>16.943781820601199</v>
       </c>
     </row>
-    <row r="48" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A48" s="11" t="s">
         <v>116</v>
       </c>
@@ -5421,7 +5421,7 @@
         <v>29.461206523057701</v>
       </c>
     </row>
-    <row r="49" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A49" s="11" t="s">
         <v>118</v>
       </c>
@@ -5504,7 +5504,7 @@
         <v>17.630714249300102</v>
       </c>
     </row>
-    <row r="50" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A50" s="11" t="s">
         <v>120</v>
       </c>
@@ -5587,7 +5587,7 @@
         <v>17.139094513736001</v>
       </c>
     </row>
-    <row r="51" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A51" s="11" t="s">
         <v>122</v>
       </c>
@@ -5670,7 +5670,7 @@
         <v>26.108509248534901</v>
       </c>
     </row>
-    <row r="52" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A52" s="11" t="s">
         <v>124</v>
       </c>
@@ -5753,7 +5753,7 @@
         <v>18.248829861732901</v>
       </c>
     </row>
-    <row r="53" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A53" s="11" t="s">
         <v>126</v>
       </c>
@@ -5836,7 +5836,7 @@
         <v>18.269882707352998</v>
       </c>
     </row>
-    <row r="54" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A54" s="11" t="s">
         <v>128</v>
       </c>
@@ -5919,7 +5919,7 @@
         <v>14.4424927020279</v>
       </c>
     </row>
-    <row r="55" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A55" s="11" t="s">
         <v>130</v>
       </c>
@@ -6002,7 +6002,7 @@
         <v>16.579616387545698</v>
       </c>
     </row>
-    <row r="56" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A56" s="11" t="s">
         <v>132</v>
       </c>
@@ -6085,7 +6085,7 @@
         <v>11.4744482592601</v>
       </c>
     </row>
-    <row r="57" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A57" s="11" t="s">
         <v>134</v>
       </c>
@@ -6168,7 +6168,7 @@
         <v>15.134933663935</v>
       </c>
     </row>
-    <row r="58" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A58" s="11" t="s">
         <v>136</v>
       </c>
@@ -6251,7 +6251,7 @@
         <v>19.061569557136</v>
       </c>
     </row>
-    <row r="59" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A59" s="11" t="s">
         <v>138</v>
       </c>
@@ -6334,7 +6334,7 @@
         <v>15.658343884074601</v>
       </c>
     </row>
-    <row r="60" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="60" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A60" s="11" t="s">
         <v>140</v>
       </c>
@@ -6417,7 +6417,7 @@
         <v>16.377345690829198</v>
       </c>
     </row>
-    <row r="61" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="61" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A61" s="27" t="s">
         <v>48</v>
       </c>
@@ -6437,10 +6437,10 @@
         <v>159.3988831314</v>
       </c>
       <c r="G61" s="31">
-        <v>3.7948047935917502</v>
+        <v>3.7954962898682201</v>
       </c>
       <c r="H61" s="32">
-        <v>7.66096101048152</v>
+        <v>7.6622629467263099</v>
       </c>
       <c r="I61" s="29">
         <v>280512</v>
@@ -6455,10 +6455,10 @@
         <v>322.94268224011302</v>
       </c>
       <c r="M61" s="31">
-        <v>7.7870874830496302</v>
+        <v>7.7866349623522497</v>
       </c>
       <c r="N61" s="32">
-        <v>15.766067955974901</v>
+        <v>15.7644264706401</v>
       </c>
       <c r="O61" s="32">
         <v>7.79285873862852</v>
@@ -6500,7 +6500,7 @@
         <v>16.465146415145298</v>
       </c>
     </row>
-    <row r="62" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="62" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A62" s="39" t="s">
         <v>48</v>
       </c>
@@ -6520,10 +6520,10 @@
         <v>262.61550122536102</v>
       </c>
       <c r="G62" s="43">
-        <v>5.1252585815629201</v>
+        <v>5.1254208875877501</v>
       </c>
       <c r="H62" s="44">
-        <v>11.617925021089</v>
+        <v>11.618058301123201</v>
       </c>
       <c r="I62" s="41">
         <v>696934</v>
@@ -6538,10 +6538,10 @@
         <v>178.01292164017599</v>
       </c>
       <c r="M62" s="43">
-        <v>3.5879847362866202</v>
+        <v>3.5871114577941099</v>
       </c>
       <c r="N62" s="44">
-        <v>7.9251220421018296</v>
+        <v>7.92286675586102</v>
       </c>
       <c r="O62" s="44">
         <v>8.5209600582440892</v>
@@ -6583,7 +6583,7 @@
         <v>14.0130499099111</v>
       </c>
     </row>
-    <row r="63" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="63" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A63" s="39" t="s">
         <v>48</v>
       </c>
@@ -6603,10 +6603,10 @@
         <v>935.14943449997702</v>
       </c>
       <c r="G63" s="48">
-        <v>4.9552065252522803</v>
+        <v>4.9540680353166602</v>
       </c>
       <c r="H63" s="49">
-        <v>9.9898682256697704</v>
+        <v>9.9884966936054198</v>
       </c>
       <c r="I63" s="46">
         <v>1614783</v>
@@ -6621,10 +6621,10 @@
         <v>255.950200353588</v>
       </c>
       <c r="M63" s="48">
-        <v>1.35732190175552</v>
+        <v>1.3570372437707101</v>
       </c>
       <c r="N63" s="49">
-        <v>2.6799058583351698</v>
+        <v>2.6796678959123699</v>
       </c>
       <c r="O63" s="49">
         <v>55.267983698248301</v>
@@ -6666,7 +6666,7 @@
         <v>44.498417413079203</v>
       </c>
     </row>
-    <row r="64" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A64" s="50" t="s">
         <v>48</v>
       </c>
@@ -6686,10 +6686,10 @@
         <v>411.044203110556</v>
       </c>
       <c r="G64" s="43">
-        <v>2.8365064013866799</v>
+        <v>2.83736886704326</v>
       </c>
       <c r="H64" s="44">
-        <v>7.5380744412778702</v>
+        <v>7.5406207827627298</v>
       </c>
       <c r="I64" s="41">
         <v>59309</v>
@@ -6704,10 +6704,10 @@
         <v>110.162902657863</v>
       </c>
       <c r="M64" s="43">
-        <v>0.76499479143844995</v>
+        <v>0.76532731318103997</v>
       </c>
       <c r="N64" s="44">
-        <v>2.0570041628457099</v>
+        <v>2.05777550109396</v>
       </c>
       <c r="O64" s="44">
         <v>12.4613189434214</v>
@@ -6749,7 +6749,7 @@
         <v>28.0013533447325</v>
       </c>
     </row>
-    <row r="65" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A65" s="50" t="s">
         <v>48</v>
       </c>
@@ -6769,10 +6769,10 @@
         <v>909.37588615385096</v>
       </c>
       <c r="G65" s="54">
-        <v>8.5657940914746291</v>
+        <v>8.5658351916113507</v>
       </c>
       <c r="H65" s="55">
-        <v>16.743336431588101</v>
+        <v>16.743085407429099</v>
       </c>
       <c r="I65" s="52">
         <v>1518184</v>
@@ -6787,10 +6787,10 @@
         <v>356.32571336973899</v>
       </c>
       <c r="M65" s="54">
-        <v>3.40945624392285</v>
+        <v>3.40961334463872</v>
       </c>
       <c r="N65" s="55">
-        <v>6.7215684546421297</v>
+        <v>6.7219108578748399</v>
       </c>
       <c r="O65" s="55">
         <v>72.301921855597996</v>
@@ -6832,7 +6832,7 @@
         <v>18.715030103292399</v>
       </c>
     </row>
-    <row r="66" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="66" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A66" s="50" t="s">
         <v>48</v>
       </c>
@@ -6852,10 +6852,10 @@
         <v>823.85477370668002</v>
       </c>
       <c r="G66" s="59">
-        <v>4.9637099360933901</v>
+        <v>4.9626336763880703</v>
       </c>
       <c r="H66" s="60">
-        <v>10.071278801375</v>
+        <v>10.0699557393625</v>
       </c>
       <c r="I66" s="57">
         <v>2311717</v>
@@ -6870,10 +6870,10 @@
         <v>243.052705419277</v>
       </c>
       <c r="M66" s="59">
-        <v>1.4688656427812401</v>
+        <v>1.4685149053722899</v>
       </c>
       <c r="N66" s="60">
-        <v>2.9421915908846699</v>
+        <v>2.94176659403806</v>
       </c>
       <c r="O66" s="60">
         <v>47.237306905507197</v>
@@ -6915,7 +6915,7 @@
         <v>39.261332476694697</v>
       </c>
     </row>
-    <row r="67" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A67" s="50" t="s">
         <v>48</v>
       </c>
@@ -6935,10 +6935,10 @@
         <v>307.12593240186402</v>
       </c>
       <c r="G67" s="64">
-        <v>6.3250476831508902</v>
+        <v>6.3251101448971498</v>
       </c>
       <c r="H67" s="65">
-        <v>15.8096153138454</v>
+        <v>15.809428496655</v>
       </c>
       <c r="I67" s="62">
         <v>285276</v>
@@ -6953,10 +6953,10 @@
         <v>98.074989499631798</v>
       </c>
       <c r="M67" s="64">
-        <v>2.28516070623238</v>
+        <v>2.28464538664843</v>
       </c>
       <c r="N67" s="65">
-        <v>6.4088794278249104</v>
+        <v>6.4072108878088896</v>
       </c>
       <c r="O67" s="65">
         <v>8.8461323729727894</v>
@@ -6998,7 +6998,7 @@
         <v>11.7594990277703</v>
       </c>
     </row>
-    <row r="68" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A68" s="50" t="s">
         <v>48</v>
       </c>
@@ -7018,10 +7018,10 @@
         <v>413.62987665352199</v>
       </c>
       <c r="G68" s="54">
-        <v>6.62122909374893</v>
+        <v>6.62232320160944</v>
       </c>
       <c r="H68" s="55">
-        <v>15.348313728070099</v>
+        <v>15.3510155043476</v>
       </c>
       <c r="I68" s="52">
         <v>350267</v>
@@ -7036,10 +7036,10 @@
         <v>230.78856152885001</v>
       </c>
       <c r="M68" s="54">
-        <v>3.8073213204125702</v>
+        <v>3.8061152538608498</v>
       </c>
       <c r="N68" s="55">
-        <v>7.6693119122204099</v>
+        <v>7.66649338433339</v>
       </c>
       <c r="O68" s="55">
         <v>9.97160661342126</v>
@@ -7081,7 +7081,7 @@
         <v>17.273784858828201</v>
       </c>
     </row>
-    <row r="69" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A69" s="50" t="s">
         <v>48</v>
       </c>
@@ -7101,10 +7101,10 @@
         <v>27.204208151041801</v>
       </c>
       <c r="G69" s="54">
-        <v>1.29465671088663</v>
+        <v>1.29469953981599</v>
       </c>
       <c r="H69" s="55">
-        <v>3.35304303383738</v>
+        <v>3.3530004973352701</v>
       </c>
       <c r="I69" s="52">
         <v>167463</v>
@@ -7119,10 +7119,10 @@
         <v>138.13505228194799</v>
       </c>
       <c r="M69" s="54">
-        <v>6.4805510300861897</v>
+        <v>6.4807802880922001</v>
       </c>
       <c r="N69" s="55">
-        <v>16.7380457527902</v>
+        <v>16.737870576172099</v>
       </c>
       <c r="O69" s="55">
         <v>7.2300166794978598</v>
@@ -7164,7 +7164,7 @@
         <v>8.5999900780931799</v>
       </c>
     </row>
-    <row r="70" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A70" s="50" t="s">
         <v>48</v>
       </c>
@@ -7184,10 +7184,10 @@
         <v>65.588275118032499</v>
       </c>
       <c r="G70" s="54">
-        <v>2.6283535672707901</v>
+        <v>2.6335705004344798</v>
       </c>
       <c r="H70" s="55">
-        <v>6.1207802090208601</v>
+        <v>6.1287397284837004</v>
       </c>
       <c r="I70" s="52">
         <v>124209</v>
@@ -7202,10 +7202,10 @@
         <v>119.49728582703599</v>
       </c>
       <c r="M70" s="54">
-        <v>4.7950983125524997</v>
+        <v>4.7912672862428103</v>
       </c>
       <c r="N70" s="55">
-        <v>11.5554374270717</v>
+        <v>11.541054065330799</v>
       </c>
       <c r="O70" s="55">
         <v>9.6970578728711594</v>
@@ -7247,7 +7247,7 @@
         <v>10.9441731638632</v>
       </c>
     </row>
-    <row r="71" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A71" s="50" t="s">
         <v>48</v>
       </c>
@@ -7267,10 +7267,10 @@
         <v>159.3988831314</v>
       </c>
       <c r="G71" s="54">
-        <v>3.7948047935917502</v>
+        <v>3.7954962898682201</v>
       </c>
       <c r="H71" s="55">
-        <v>7.66096101048152</v>
+        <v>7.6622629467263099</v>
       </c>
       <c r="I71" s="52">
         <v>280512</v>
@@ -7285,10 +7285,10 @@
         <v>322.94268224011302</v>
       </c>
       <c r="M71" s="54">
-        <v>7.7870874830496302</v>
+        <v>7.7866349623522497</v>
       </c>
       <c r="N71" s="55">
-        <v>15.766067955974901</v>
+        <v>15.7644264706401</v>
       </c>
       <c r="O71" s="55">
         <v>7.79285873862852</v>
@@ -7330,7 +7330,7 @@
         <v>16.465146415145298</v>
       </c>
     </row>
-    <row r="72" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A72" s="50" t="s">
         <v>48</v>
       </c>
@@ -7350,10 +7350,10 @@
         <v>28.9689793653381</v>
       </c>
       <c r="G72" s="54">
-        <v>1.13126521276418</v>
+        <v>1.13128179482923</v>
       </c>
       <c r="H72" s="55">
-        <v>3.1524196889997498</v>
+        <v>3.1523555946151101</v>
       </c>
       <c r="I72" s="52">
         <v>163615</v>
@@ -7368,10 +7368,10 @@
         <v>145.57196229839801</v>
       </c>
       <c r="M72" s="54">
-        <v>5.7101988389666403</v>
+        <v>5.71028961611953</v>
       </c>
       <c r="N72" s="55">
-        <v>17.0971781791146</v>
+        <v>17.097093836136299</v>
       </c>
       <c r="O72" s="55">
         <v>6.1114950330639903</v>
@@ -7413,7 +7413,7 @@
         <v>7.91482892977678</v>
       </c>
     </row>
-    <row r="73" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A73" s="50" t="s">
         <v>48</v>
       </c>
@@ -7433,10 +7433,10 @@
         <v>135.19491260158301</v>
       </c>
       <c r="G73" s="54">
-        <v>3.3716196462049002</v>
+        <v>3.37162953502644</v>
       </c>
       <c r="H73" s="55">
-        <v>5.57524911130447</v>
+        <v>5.5755523107011804</v>
       </c>
       <c r="I73" s="52">
         <v>192307</v>
@@ -7451,10 +7451,10 @@
         <v>141.34775309031301</v>
       </c>
       <c r="M73" s="54">
-        <v>3.32629819424784</v>
+        <v>3.32577597510224</v>
       </c>
       <c r="N73" s="55">
-        <v>7.2730716827344404</v>
+        <v>7.2718806499903401</v>
       </c>
       <c r="O73" s="55">
         <v>6.9855418194860102</v>
@@ -7496,7 +7496,7 @@
         <v>12.055112596925101</v>
       </c>
     </row>
-    <row r="74" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A74" s="50" t="s">
         <v>48</v>
       </c>
@@ -7516,10 +7516,10 @@
         <v>655.73767223287996</v>
       </c>
       <c r="G74" s="54">
-        <v>6.4807275119808301</v>
+        <v>6.4807287727659704</v>
       </c>
       <c r="H74" s="55">
-        <v>16.556241861913101</v>
+        <v>16.556242395902501</v>
       </c>
       <c r="I74" s="52">
         <v>2982</v>
@@ -7534,10 +7534,10 @@
         <v>21.5781939058832</v>
       </c>
       <c r="M74" s="54">
-        <v>0.23114779215431</v>
+        <v>0.23114748739825999</v>
       </c>
       <c r="N74" s="55">
-        <v>0.57049791566056995</v>
+        <v>0.57049668741041004</v>
       </c>
       <c r="O74" s="55">
         <v>15.743241880128901</v>
@@ -7579,7 +7579,7 @@
         <v>16.2235774044915</v>
       </c>
     </row>
-    <row r="75" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="75" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A75" s="50" t="s">
         <v>48</v>
       </c>
@@ -7599,10 +7599,10 @@
         <v>72.139751598394099</v>
       </c>
       <c r="G75" s="59">
-        <v>1.95302095720379</v>
+        <v>1.95533583111381</v>
       </c>
       <c r="H75" s="60">
-        <v>4.8566229250796997</v>
+        <v>4.8612459451435202</v>
       </c>
       <c r="I75" s="57">
         <v>35568</v>
@@ -7617,10 +7617,10 @@
         <v>155.222693553434</v>
       </c>
       <c r="M75" s="59">
-        <v>4.0982293855434104</v>
+        <v>4.0967173843582403</v>
       </c>
       <c r="N75" s="60">
-        <v>9.6647323210012104</v>
+        <v>9.6597842907987292</v>
       </c>
       <c r="O75" s="60">
         <v>3.7766851859814099</v>
@@ -7662,7 +7662,7 @@
         <v>9.7092918748914805</v>
       </c>
     </row>
-    <row r="76" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A76" s="50" t="s">
         <v>48</v>
       </c>
@@ -7682,10 +7682,10 @@
         <v>497.398462334432</v>
       </c>
       <c r="G76" s="64">
-        <v>4.0765025159190396</v>
+        <v>4.0765022912667099</v>
       </c>
       <c r="H76" s="65">
-        <v>9.7396446170705904</v>
+        <v>9.7396445491636996</v>
       </c>
       <c r="I76" s="62">
         <v>229941</v>
@@ -7700,10 +7700,10 @@
         <v>351.66947067633703</v>
       </c>
       <c r="M76" s="64">
-        <v>2.8938185005195698</v>
+        <v>2.8938182722672199</v>
       </c>
       <c r="N76" s="65">
-        <v>6.1258311626315898</v>
+        <v>6.1258307243664003</v>
       </c>
       <c r="O76" s="65">
         <v>13.6609909640891</v>
@@ -7745,7 +7745,7 @@
         <v>10.9701439812156</v>
       </c>
     </row>
-    <row r="77" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A77" s="50" t="s">
         <v>48</v>
       </c>
@@ -7765,10 +7765,10 @@
         <v>384.47709782547503</v>
       </c>
       <c r="G77" s="54">
-        <v>2.6385420178142902</v>
+        <v>2.6385009461528202</v>
       </c>
       <c r="H77" s="55">
-        <v>7.1986284199257904</v>
+        <v>7.1982132799805196</v>
       </c>
       <c r="I77" s="52">
         <v>24047</v>
@@ -7783,10 +7783,10 @@
         <v>89.886909178688001</v>
       </c>
       <c r="M77" s="54">
-        <v>0.60571749259299001</v>
+        <v>0.60565031069470998</v>
       </c>
       <c r="N77" s="55">
-        <v>1.6848546504870101</v>
+        <v>1.6846591558503401</v>
       </c>
       <c r="O77" s="55">
         <v>12.4768614236825</v>
@@ -7828,7 +7828,7 @@
         <v>27.484678870244998</v>
       </c>
     </row>
-    <row r="78" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A78" s="50" t="s">
         <v>48</v>
       </c>
@@ -7848,10 +7848,10 @@
         <v>1461.6650047216101</v>
       </c>
       <c r="G78" s="54">
-        <v>3.4952498475670399</v>
+        <v>3.49513268572667</v>
       </c>
       <c r="H78" s="55">
-        <v>5.3015030209817704</v>
+        <v>5.30140422599617</v>
       </c>
       <c r="I78" s="52">
         <v>9423</v>
@@ -7866,10 +7866,10 @@
         <v>66.380226998324602</v>
       </c>
       <c r="M78" s="54">
-        <v>0.15683436540539</v>
+        <v>0.15682336127259</v>
       </c>
       <c r="N78" s="55">
-        <v>0.17435280388095001</v>
+        <v>0.17434128409693</v>
       </c>
       <c r="O78" s="55">
         <v>31.730660108173002</v>
@@ -7911,7 +7911,7 @@
         <v>136.220952983334</v>
       </c>
     </row>
-    <row r="79" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="79" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A79" s="50" t="s">
         <v>48</v>
       </c>
@@ -7931,10 +7931,10 @@
         <v>1047.4878510532101</v>
       </c>
       <c r="G79" s="59">
-        <v>2.4396252356936601</v>
+        <v>2.4403554600541999</v>
       </c>
       <c r="H79" s="60">
-        <v>4.9926397402272</v>
+        <v>4.9958623511565401</v>
       </c>
       <c r="I79" s="57">
         <v>18287</v>
@@ -7949,10 +7949,10 @@
         <v>32.185890099389901</v>
       </c>
       <c r="M79" s="59">
-        <v>7.6000109315329994E-2</v>
+        <v>7.6767478768980005E-2</v>
       </c>
       <c r="N79" s="60">
-        <v>0.16665436551012999</v>
+        <v>0.16870141105782999</v>
       </c>
       <c r="O79" s="60">
         <v>28.202971854713301</v>
@@ -7994,7 +7994,7 @@
         <v>101.665947510666</v>
       </c>
     </row>
-    <row r="80" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A80" s="50" t="s">
         <v>48</v>
       </c>
@@ -8014,10 +8014,10 @@
         <v>373.76550576920999</v>
       </c>
       <c r="G80" s="64">
-        <v>4.4524452303257398</v>
+        <v>4.4521074650341497</v>
       </c>
       <c r="H80" s="65">
-        <v>13.118250214764499</v>
+        <v>13.109416891556201</v>
       </c>
       <c r="I80" s="62">
         <v>38642</v>
@@ -8032,10 +8032,10 @@
         <v>99.105416576030194</v>
       </c>
       <c r="M80" s="64">
-        <v>1.23183465091191</v>
+        <v>1.23703533698228</v>
       </c>
       <c r="N80" s="65">
-        <v>2.88744575616977</v>
+        <v>2.8976083317907699</v>
       </c>
       <c r="O80" s="65">
         <v>9.0508444694969992</v>
@@ -8077,7 +8077,7 @@
         <v>12.005222916708799</v>
       </c>
     </row>
-    <row r="81" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A81" s="50" t="s">
         <v>48</v>
       </c>
@@ -8097,10 +8097,10 @@
         <v>1009.01280874751</v>
       </c>
       <c r="G81" s="54">
-        <v>5.0614930615822198</v>
+        <v>5.0610203232147102</v>
       </c>
       <c r="H81" s="55">
-        <v>14.139338064116799</v>
+        <v>14.1379762638066</v>
       </c>
       <c r="I81" s="52">
         <v>31441</v>
@@ -8115,10 +8115,10 @@
         <v>51.980400913448797</v>
       </c>
       <c r="M81" s="54">
-        <v>0.24656768288457001</v>
+        <v>0.24674527579715999</v>
       </c>
       <c r="N81" s="55">
-        <v>0.43615820565102997</v>
+        <v>0.43664061701212997</v>
       </c>
       <c r="O81" s="55">
         <v>11.043695530192499</v>
@@ -8160,7 +8160,7 @@
         <v>89.707544734913697</v>
       </c>
     </row>
-    <row r="82" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A82" s="50" t="s">
         <v>48</v>
       </c>
@@ -8180,10 +8180,10 @@
         <v>251.72723928924199</v>
       </c>
       <c r="G82" s="54">
-        <v>5.2471486786844599</v>
+        <v>5.2476844292443303</v>
       </c>
       <c r="H82" s="55">
-        <v>11.3461189054185</v>
+        <v>11.3472501202098</v>
       </c>
       <c r="I82" s="52">
         <v>658292</v>
@@ -8198,10 +8198,10 @@
         <v>185.74270615426499</v>
       </c>
       <c r="M82" s="54">
-        <v>4.0148361984509204</v>
+        <v>4.0138497643071096</v>
       </c>
       <c r="N82" s="55">
-        <v>8.8377716657010392</v>
+        <v>8.83537773824448</v>
       </c>
       <c r="O82" s="55">
         <v>8.4670062745294796</v>
@@ -8243,7 +8243,7 @@
         <v>14.217490465298299</v>
       </c>
     </row>
-    <row r="83" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="83" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A83" s="50" t="s">
         <v>48</v>
       </c>
@@ -8263,10 +8263,10 @@
         <v>928.89080609407995</v>
       </c>
       <c r="G83" s="59">
-        <v>4.9453460168992898</v>
+        <v>4.9441537424883997</v>
       </c>
       <c r="H83" s="60">
-        <v>9.6049099476477604</v>
+        <v>9.6038470862677894</v>
       </c>
       <c r="I83" s="57">
         <v>1583342</v>
@@ -8281,10 +8281,10 @@
         <v>273.233071515728</v>
       </c>
       <c r="M83" s="59">
-        <v>1.46036977245948</v>
+        <v>1.4599593963649999</v>
       </c>
       <c r="N83" s="60">
-        <v>2.8880647958192101</v>
+        <v>2.8875926603268001</v>
       </c>
       <c r="O83" s="60">
         <v>58.978843515289398</v>
@@ -8326,7 +8326,7 @@
         <v>40.704919747168198</v>
       </c>
     </row>
-    <row r="84" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A84" s="50" t="s">
         <v>48</v>
       </c>
@@ -8346,10 +8346,10 @@
         <v>21.129184584756501</v>
       </c>
       <c r="G84" s="64">
-        <v>1.23236261361852</v>
+        <v>1.23226436407572</v>
       </c>
       <c r="H84" s="65">
-        <v>3.2464627458376398</v>
+        <v>3.24609621116279</v>
       </c>
       <c r="I84" s="62">
         <v>416380</v>
@@ -8364,10 +8364,10 @@
         <v>128.91160963294999</v>
       </c>
       <c r="M84" s="64">
-        <v>7.5279995149322296</v>
+        <v>7.5284875358185204</v>
       </c>
       <c r="N84" s="65">
-        <v>19.9931562684474</v>
+        <v>19.993969975050501</v>
       </c>
       <c r="O84" s="65">
         <v>7.2285498294187098</v>
@@ -8409,7 +8409,7 @@
         <v>9.7602241512577308</v>
       </c>
     </row>
-    <row r="85" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A85" s="50" t="s">
         <v>48</v>
       </c>
@@ -8429,10 +8429,10 @@
         <v>58.046573859246699</v>
       </c>
       <c r="G85" s="54">
-        <v>2.9977510548676598</v>
+        <v>3.0004606622270602</v>
       </c>
       <c r="H85" s="55">
-        <v>9.0539782700017106</v>
+        <v>9.0619583701788997</v>
       </c>
       <c r="I85" s="52">
         <v>69410</v>
@@ -8447,10 +8447,10 @@
         <v>111.902081701722</v>
       </c>
       <c r="M85" s="54">
-        <v>5.6362307228256698</v>
+        <v>5.6292743370655103</v>
       </c>
       <c r="N85" s="55">
-        <v>17.0899731485061</v>
+        <v>17.068579688456602</v>
       </c>
       <c r="O85" s="55">
         <v>42.285361048519299</v>
@@ -8492,7 +8492,7 @@
         <v>11.322404683217499</v>
       </c>
     </row>
-    <row r="86" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A86" s="50" t="s">
         <v>48</v>
       </c>
@@ -8512,10 +8512,10 @@
         <v>399.08705777375002</v>
       </c>
       <c r="G86" s="54">
-        <v>6.0234276940211</v>
+        <v>6.0232797442644603</v>
       </c>
       <c r="H86" s="55">
-        <v>14.087171256429301</v>
+        <v>14.0864428425844</v>
       </c>
       <c r="I86" s="52">
         <v>274378</v>
@@ -8530,10 +8530,10 @@
         <v>220.34042056348099</v>
       </c>
       <c r="M86" s="54">
-        <v>3.4734832434519101</v>
+        <v>3.47259706026037</v>
       </c>
       <c r="N86" s="55">
-        <v>7.12701569161666</v>
+        <v>7.1249888888380699</v>
       </c>
       <c r="O86" s="55">
         <v>9.3943385426050394</v>
@@ -8575,7 +8575,7 @@
         <v>16.532986676655302</v>
       </c>
     </row>
-    <row r="87" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A87" s="50" t="s">
         <v>48</v>
       </c>
@@ -8595,10 +8595,10 @@
         <v>489.13101406382299</v>
       </c>
       <c r="G87" s="54">
-        <v>6.7010541903778602</v>
+        <v>6.7009715342019103</v>
       </c>
       <c r="H87" s="55">
-        <v>13.678789002450699</v>
+        <v>13.678645697189101</v>
       </c>
       <c r="I87" s="52">
         <v>1114535</v>
@@ -8613,10 +8613,10 @@
         <v>329.04667467566702</v>
       </c>
       <c r="M87" s="54">
-        <v>4.5348090603425</v>
+        <v>4.5347846783338497</v>
       </c>
       <c r="N87" s="55">
-        <v>9.2839129828572204</v>
+        <v>9.2839055372547907</v>
       </c>
       <c r="O87" s="55">
         <v>78.468604403623004</v>
@@ -8658,7 +8658,7 @@
         <v>22.514679912850799</v>
       </c>
     </row>
-    <row r="88" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A88" s="50" t="s">
         <v>48</v>
       </c>
@@ -8678,10 +8678,10 @@
         <v>608.62040274833896</v>
       </c>
       <c r="G88" s="54">
-        <v>4.7100821236573998</v>
+        <v>4.7100868593663403</v>
       </c>
       <c r="H88" s="55">
-        <v>8.5808026709273602</v>
+        <v>8.5808943774901199</v>
       </c>
       <c r="I88" s="52">
         <v>6176</v>
@@ -8696,10 +8696,10 @@
         <v>114.872224520693</v>
       </c>
       <c r="M88" s="54">
-        <v>0.84810376499089002</v>
+        <v>0.84810433331845003</v>
       </c>
       <c r="N88" s="55">
-        <v>1.31179073242942</v>
+        <v>1.3117920004594099</v>
       </c>
       <c r="O88" s="55">
         <v>10.281869830323</v>
@@ -8741,7 +8741,7 @@
         <v>23.027104307494302</v>
       </c>
     </row>
-    <row r="89" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A89" s="50" t="s">
         <v>48</v>
       </c>
@@ -8761,10 +8761,10 @@
         <v>1339.4422329291799</v>
       </c>
       <c r="G89" s="54">
-        <v>7.7752774382502601</v>
+        <v>7.76832789774173</v>
       </c>
       <c r="H89" s="55">
-        <v>14.7172367274402</v>
+        <v>14.7071989460874</v>
       </c>
       <c r="I89" s="52">
         <v>422247</v>
@@ -8779,10 +8779,10 @@
         <v>299.29789458118103</v>
       </c>
       <c r="M89" s="54">
-        <v>1.7267704572973299</v>
+        <v>1.72547920906354</v>
       </c>
       <c r="N89" s="55">
-        <v>3.27758794660466</v>
+        <v>3.2760449336654598</v>
       </c>
       <c r="O89" s="55">
         <v>44.740476620992297</v>
@@ -8824,7 +8824,7 @@
         <v>35.5795965054538</v>
       </c>
     </row>
-    <row r="90" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="90" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A90" s="50" t="s">
         <v>48</v>
       </c>
@@ -8844,10 +8844,10 @@
         <v>1161.25585839826</v>
       </c>
       <c r="G90" s="59">
-        <v>2.4282613496296301</v>
+        <v>2.42815987849561</v>
       </c>
       <c r="H90" s="60">
-        <v>5.4958374728989998</v>
+        <v>5.4956310336665402</v>
       </c>
       <c r="I90" s="57">
         <v>8503</v>
@@ -8862,10 +8862,10 @@
         <v>23.7211102793345</v>
       </c>
       <c r="M90" s="59">
-        <v>5.0101234396989998E-2</v>
+        <v>5.0135206869079997E-2</v>
       </c>
       <c r="N90" s="60">
-        <v>6.7596769365120005E-2</v>
+        <v>6.7719919936030007E-2</v>
       </c>
       <c r="O90" s="60">
         <v>28.313735702801701</v>
@@ -8907,7 +8907,7 @@
         <v>114.01158505003799</v>
       </c>
     </row>
-    <row r="91" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A91" s="50" t="s">
         <v>48</v>
       </c>
@@ -8927,10 +8927,10 @@
         <v>32.975695052719303</v>
       </c>
       <c r="G91" s="64">
-        <v>1.54857733157056</v>
+        <v>1.5484604467599601</v>
       </c>
       <c r="H91" s="65">
-        <v>3.9187426536746899</v>
+        <v>3.9182305916538001</v>
       </c>
       <c r="I91" s="62">
         <v>486918</v>
@@ -8945,10 +8945,10 @@
         <v>149.706829497011</v>
       </c>
       <c r="M91" s="64">
-        <v>6.9980940424756701</v>
+        <v>6.9984539900285698</v>
       </c>
       <c r="N91" s="65">
-        <v>17.799520668098399</v>
+        <v>17.799811897403298</v>
       </c>
       <c r="O91" s="65">
         <v>6.7732861926830399</v>
@@ -8990,7 +8990,7 @@
         <v>10.110221062339299</v>
       </c>
     </row>
-    <row r="92" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A92" s="50" t="s">
         <v>48</v>
       </c>
@@ -9010,10 +9010,10 @@
         <v>205.36737924542101</v>
       </c>
       <c r="G92" s="54">
-        <v>5.1797867808561104</v>
+        <v>5.1794482261192503</v>
       </c>
       <c r="H92" s="55">
-        <v>11.622236748082299</v>
+        <v>11.622249645985301</v>
       </c>
       <c r="I92" s="52">
         <v>238734</v>
@@ -9028,10 +9028,10 @@
         <v>333.00788968536699</v>
       </c>
       <c r="M92" s="54">
-        <v>8.1936828318877701</v>
+        <v>8.1924124124159494</v>
       </c>
       <c r="N92" s="55">
-        <v>17.897590680954199</v>
+        <v>17.895532762767999</v>
       </c>
       <c r="O92" s="55">
         <v>54.139079457698699</v>
@@ -9073,7 +9073,7 @@
         <v>20.980199257847101</v>
       </c>
     </row>
-    <row r="93" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A93" s="50" t="s">
         <v>48</v>
       </c>
@@ -9093,10 +9093,10 @@
         <v>404.46612731800502</v>
       </c>
       <c r="G93" s="54">
-        <v>4.7192862408085299</v>
+        <v>4.7231354407946498</v>
       </c>
       <c r="H93" s="55">
-        <v>8.0703575423847695</v>
+        <v>8.0894677573568501</v>
       </c>
       <c r="I93" s="52">
         <v>2391</v>
@@ -9111,10 +9111,10 @@
         <v>131.66545154532301</v>
       </c>
       <c r="M93" s="54">
-        <v>1.67659206567248</v>
+        <v>1.65771329728609</v>
       </c>
       <c r="N93" s="55">
-        <v>3.8493932327855398</v>
+        <v>3.7976271114416198</v>
       </c>
       <c r="O93" s="55">
         <v>4.4411050922922204</v>
@@ -9156,7 +9156,7 @@
         <v>22.811130701319101</v>
       </c>
     </row>
-    <row r="94" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A94" s="50" t="s">
         <v>48</v>
       </c>
@@ -9176,10 +9176,10 @@
         <v>508.23843231728301</v>
       </c>
       <c r="G94" s="54">
-        <v>2.6639432279954001</v>
+        <v>2.6625170307197301</v>
       </c>
       <c r="H94" s="55">
-        <v>10.0081339501253</v>
+        <v>10.0085988976299</v>
       </c>
       <c r="I94" s="52">
         <v>28112</v>
@@ -9194,10 +9194,10 @@
         <v>256.33948437836602</v>
       </c>
       <c r="M94" s="54">
-        <v>1.35017174840191</v>
+        <v>1.3511592074466501</v>
       </c>
       <c r="N94" s="55">
-        <v>2.4499761501163402</v>
+        <v>2.45174923674919</v>
       </c>
       <c r="O94" s="55">
         <v>5.6847268344985302</v>
@@ -9239,7 +9239,7 @@
         <v>22.557128282239798</v>
       </c>
     </row>
-    <row r="95" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A95" s="50" t="s">
         <v>48</v>
       </c>
@@ -9259,10 +9259,10 @@
         <v>32.505210771318303</v>
       </c>
       <c r="G95" s="54">
-        <v>1.4664090833735199</v>
+        <v>1.46649738322176</v>
       </c>
       <c r="H95" s="55">
-        <v>3.31537751455883</v>
+        <v>3.3153354269490101</v>
       </c>
       <c r="I95" s="52">
         <v>249366</v>
@@ -9277,10 +9277,10 @@
         <v>153.94291665227601</v>
       </c>
       <c r="M95" s="54">
-        <v>7.2155228838800998</v>
+        <v>7.2158919545602398</v>
       </c>
       <c r="N95" s="55">
-        <v>18.369664701881799</v>
+        <v>18.3696638836571</v>
       </c>
       <c r="O95" s="55">
         <v>6.56927891669066</v>
@@ -9322,7 +9322,7 @@
         <v>9.6551190582255604</v>
       </c>
     </row>
-    <row r="96" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="96" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A96" s="50" t="s">
         <v>48</v>
       </c>
@@ -9342,10 +9342,10 @@
         <v>535.41497958265904</v>
       </c>
       <c r="G96" s="59">
-        <v>6.4591118695481002</v>
+        <v>6.4590594282721199</v>
       </c>
       <c r="H96" s="60">
-        <v>12.3147424561439</v>
+        <v>12.3146899523903</v>
       </c>
       <c r="I96" s="57">
         <v>71126</v>
@@ -9360,10 +9360,10 @@
         <v>191.636453629203</v>
       </c>
       <c r="M96" s="59">
-        <v>2.4102458839512702</v>
+        <v>2.4102878655684101</v>
       </c>
       <c r="N96" s="60">
-        <v>5.2296965665651101</v>
+        <v>5.22979610961454</v>
       </c>
       <c r="O96" s="60">
         <v>44.645192033118398</v>
@@ -9405,7 +9405,7 @@
         <v>48.901675602001099</v>
       </c>
     </row>
-    <row r="97" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A97" s="50" t="s">
         <v>48</v>
       </c>
@@ -9425,10 +9425,10 @@
         <v>99.856380264071007</v>
       </c>
       <c r="G97" s="64">
-        <v>2.8724759546599001</v>
+        <v>2.8724663545277398</v>
       </c>
       <c r="H97" s="65">
-        <v>6.3505367373854504</v>
+        <v>6.3504854093038396</v>
       </c>
       <c r="I97" s="62">
         <v>502570</v>
@@ -9443,10 +9443,10 @@
         <v>238.89370811806299</v>
       </c>
       <c r="M97" s="64">
-        <v>6.7360112134466297</v>
+        <v>6.7357527148152201</v>
       </c>
       <c r="N97" s="65">
-        <v>14.857275743775601</v>
+        <v>14.8564527656435</v>
       </c>
       <c r="O97" s="65">
         <v>6.2813352104625801</v>
@@ -9488,7 +9488,7 @@
         <v>12.104469221469699</v>
       </c>
     </row>
-    <row r="98" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="98" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A98" s="50" t="s">
         <v>48</v>
       </c>
@@ -9508,10 +9508,10 @@
         <v>339.28523209115502</v>
       </c>
       <c r="G98" s="59">
-        <v>5.4585414286006797</v>
+        <v>5.45825549930173</v>
       </c>
       <c r="H98" s="60">
-        <v>13.1823106611737</v>
+        <v>13.1816843695761</v>
       </c>
       <c r="I98" s="57">
         <v>339093</v>
@@ -9526,10 +9526,10 @@
         <v>289.16659480733102</v>
       </c>
       <c r="M98" s="59">
-        <v>4.66566129352994</v>
+        <v>4.66554895556928</v>
       </c>
       <c r="N98" s="60">
-        <v>9.7790711468714004</v>
+        <v>9.7790278440922105</v>
       </c>
       <c r="O98" s="60">
         <v>43.865928183693299</v>
@@ -9571,7 +9571,7 @@
         <v>27.358695805456101</v>
       </c>
     </row>
-    <row r="99" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A99" s="66"/>
       <c r="B99" s="67"/>
       <c r="C99" s="42"/>
@@ -9600,7 +9600,7 @@
       <c r="Z99" s="43"/>
       <c r="AA99" s="43"/>
     </row>
-    <row r="100" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A100" s="1" t="s">
         <v>180</v>
       </c>
@@ -9630,7 +9630,7 @@
       <c r="Z100" s="69"/>
       <c r="AA100" s="69"/>
     </row>
-    <row r="101" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A101" s="1" t="s">
         <v>181</v>
       </c>
@@ -9660,7 +9660,7 @@
       <c r="Z101" s="69"/>
       <c r="AA101" s="69"/>
     </row>
-    <row r="102" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A102" s="1" t="s">
         <v>182</v>
       </c>
@@ -9690,7 +9690,7 @@
       <c r="Z102" s="69"/>
       <c r="AA102" s="69"/>
     </row>
-    <row r="103" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A103" s="1" t="s">
         <v>183</v>
       </c>
@@ -9720,7 +9720,7 @@
       <c r="Z103" s="69"/>
       <c r="AA103" s="69"/>
     </row>
-    <row r="104" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A104" s="1" t="s">
         <v>184</v>
       </c>
@@ -9750,7 +9750,7 @@
       <c r="Z104" s="69"/>
       <c r="AA104" s="69"/>
     </row>
-    <row r="105" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:27" x14ac:dyDescent="0.3">
       <c r="C105" s="68"/>
       <c r="D105" s="68"/>
       <c r="E105" s="69"/>
@@ -9777,7 +9777,7 @@
       <c r="Z105" s="69"/>
       <c r="AA105" s="69"/>
     </row>
-    <row r="106" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:27" x14ac:dyDescent="0.3">
       <c r="C106" s="68"/>
       <c r="D106" s="68"/>
       <c r="E106" s="69"/>
@@ -9804,7 +9804,7 @@
       <c r="Z106" s="69"/>
       <c r="AA106" s="69"/>
     </row>
-    <row r="107" spans="1:27" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:27" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B107" s="70" t="s">
         <v>185</v>
       </c>
@@ -9834,7 +9834,7 @@
       <c r="Z107" s="69"/>
       <c r="AA107" s="69"/>
     </row>
-    <row r="108" spans="1:27" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:27" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B108" s="70"/>
       <c r="C108" s="68"/>
       <c r="D108" s="68"/>
@@ -9862,7 +9862,7 @@
       <c r="Z108" s="69"/>
       <c r="AA108" s="69"/>
     </row>
-    <row r="109" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:27" x14ac:dyDescent="0.3">
       <c r="B109" s="2" t="s">
         <v>188</v>
       </c>
@@ -9892,7 +9892,7 @@
       <c r="Z109" s="69"/>
       <c r="AA109" s="69"/>
     </row>
-    <row r="110" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:27" x14ac:dyDescent="0.3">
       <c r="B110" s="2" t="s">
         <v>189</v>
       </c>
@@ -9922,7 +9922,7 @@
       <c r="Z110" s="69"/>
       <c r="AA110" s="69"/>
     </row>
-    <row r="111" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:27" x14ac:dyDescent="0.3">
       <c r="B111" s="2" t="s">
         <v>190</v>
       </c>
@@ -9952,7 +9952,7 @@
       <c r="Z111" s="69"/>
       <c r="AA111" s="69"/>
     </row>
-    <row r="112" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:27" x14ac:dyDescent="0.3">
       <c r="B112" s="2" t="s">
         <v>186</v>
       </c>
@@ -9982,7 +9982,7 @@
       <c r="Z112" s="69"/>
       <c r="AA112" s="69"/>
     </row>
-    <row r="113" spans="2:27" x14ac:dyDescent="0.35">
+    <row r="113" spans="2:27" x14ac:dyDescent="0.3">
       <c r="B113" s="2" t="s">
         <v>187</v>
       </c>
@@ -10012,7 +10012,7 @@
       <c r="Z113" s="69"/>
       <c r="AA113" s="69"/>
     </row>
-    <row r="114" spans="2:27" x14ac:dyDescent="0.35">
+    <row r="114" spans="2:27" x14ac:dyDescent="0.3">
       <c r="B114" s="2"/>
       <c r="C114" s="68"/>
       <c r="D114" s="68"/>
@@ -10042,12 +10042,12 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B109" r:id="rId1" location="Indicators!A1" display="For more information about the indicators presented in this table, go to the List of indicators, descriptions and details." xr:uid="{4367EBDC-248A-4E08-9042-59B1EBFC0ACF}"/>
-    <hyperlink ref="B110" r:id="rId2" location="'Country groupings'!A1" display="To see which countries belong to each country grouping, see the list of countries, and country groupings used for aggregating indicators" xr:uid="{54CDD463-4DD0-4390-9A46-7578FEF95D55}"/>
-    <hyperlink ref="B107" r:id="rId3" xr:uid="{6972E76B-E2F2-4C40-B7C5-BBBBD61FC742}"/>
-    <hyperlink ref="B113" r:id="rId4" xr:uid="{5FA6D7AA-23BB-4154-A90A-DAC042A3663E}"/>
-    <hyperlink ref="B112" r:id="rId5" xr:uid="{E24B28E7-790E-4D6B-BDEC-61835F4DDA83}"/>
-    <hyperlink ref="B111" r:id="rId6" xr:uid="{6481BE15-3CF9-4995-94D6-10333F993AA5}"/>
+    <hyperlink ref="B109" r:id="rId1" location="Indicators!A1" display="For more information about the indicators presented in this table, go to the List of indicators, descriptions and details." xr:uid="{0642954B-8F41-495F-978D-D69A46BAD54E}"/>
+    <hyperlink ref="B110" r:id="rId2" location="'Country groupings'!A1" display="To see which countries belong to each country grouping, see the list of countries, and country groupings used for aggregating indicators" xr:uid="{65A3DE9B-19B7-4095-B6EC-07067814C1A3}"/>
+    <hyperlink ref="B107" r:id="rId3" xr:uid="{97A6296D-D322-479A-91E5-95D178F0E25A}"/>
+    <hyperlink ref="B113" r:id="rId4" xr:uid="{693980E0-ED93-4C62-8CA3-CD397EE41F1E}"/>
+    <hyperlink ref="B112" r:id="rId5" xr:uid="{2086ACE4-6A89-48A9-A5B5-5A309499B194}"/>
+    <hyperlink ref="B111" r:id="rId6" xr:uid="{72814FE1-AEFA-4376-B63B-E5617FA9E50A}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="49" fitToWidth="0" orientation="portrait" r:id="rId7"/>
